--- a/crossStartingPos.xlsx
+++ b/crossStartingPos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emil Jansson\Documents\Kandidatarbete\Kandidatarbete_Search_Strategies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D650B8D-6B47-4B99-B05B-8CBEBEF26C53}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E35E6AC-833F-48AB-AFD2-466928312017}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4530" yWindow="1170" windowWidth="24180" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D140"/>
+      <selection sqref="A1:D450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,13 +390,13 @@
         <v>0.01</v>
       </c>
       <c r="B1">
-        <v>5.2444192710796038</v>
+        <v>1.3444129758989005</v>
       </c>
       <c r="C1">
-        <v>0.49993507995994424</v>
+        <v>0.49998454672741094</v>
       </c>
       <c r="D1">
-        <v>0.50009417757489327</v>
+        <v>0.49989343290182109</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -404,13 +404,13 @@
         <v>0.01</v>
       </c>
       <c r="B2">
-        <v>3.8643267002081672</v>
+        <v>6.148745745878724</v>
       </c>
       <c r="C2">
-        <v>0.50004180299687118</v>
+        <v>0.49990906265237367</v>
       </c>
       <c r="D2">
-        <v>0.50006737024864645</v>
+        <v>0.50002687236251098</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -418,13 +418,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>5.6144358436270956</v>
+        <v>0.91948198055053287</v>
       </c>
       <c r="C3">
-        <v>0.49991701926895615</v>
+        <v>0.49995164909677781</v>
       </c>
       <c r="D3">
-        <v>0.50007651164468658</v>
+        <v>0.49992164245674786</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -432,13 +432,13 @@
         <v>0.01</v>
       </c>
       <c r="B4">
-        <v>2.6681467254377069</v>
+        <v>3.1087286350502041</v>
       </c>
       <c r="C4">
-        <v>0.50011052340966522</v>
+        <v>0.50009521107221744</v>
       </c>
       <c r="D4">
-        <v>0.49996076394887634</v>
+        <v>0.37689351631998702</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -446,13 +446,13 @@
         <v>0.01</v>
       </c>
       <c r="B5">
-        <v>1.3132197347290444</v>
+        <v>2.0262239233540553</v>
       </c>
       <c r="C5">
-        <v>0.44374039672366639</v>
+        <v>0.50004575065099865</v>
       </c>
       <c r="D5">
-        <v>0.49988428343226055</v>
+        <v>0.49991279323106591</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -460,13 +460,13 @@
         <v>0.01</v>
       </c>
       <c r="B6">
-        <v>3.3832762062429467</v>
+        <v>2.2740186754610083</v>
       </c>
       <c r="C6">
-        <v>0.50011686437301472</v>
+        <v>0.50009000963594008</v>
       </c>
       <c r="D6">
-        <v>0.50003386977625652</v>
+        <v>0.49993039359991354</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -474,13 +474,13 @@
         <v>0.01</v>
       </c>
       <c r="B7">
-        <v>6.0495792757831008</v>
+        <v>3.5914722846988276</v>
       </c>
       <c r="C7">
-        <v>0.49991341608042283</v>
+        <v>0.50010341713863871</v>
       </c>
       <c r="D7">
-        <v>0.50002338470479168</v>
+        <v>0.50002727891008458</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -488,13 +488,13 @@
         <v>0.01</v>
       </c>
       <c r="B8">
-        <v>2.419771607322605</v>
+        <v>3.7825102190352058</v>
       </c>
       <c r="C8">
-        <v>0.50007086158441116</v>
+        <v>0.50006762938273286</v>
       </c>
       <c r="D8">
-        <v>0.49993368813421313</v>
+        <v>0.50006346233567278</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -502,13 +502,13 @@
         <v>0.01</v>
       </c>
       <c r="B9">
-        <v>2.7572620825469967</v>
+        <v>3.723245779276112</v>
       </c>
       <c r="C9">
-        <v>0.50010965237349736</v>
+        <v>0.50008868405526785</v>
       </c>
       <c r="D9">
-        <v>0.49995041284786601</v>
+        <v>0.5000802591942427</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -516,13 +516,13 @@
         <v>0.01</v>
       </c>
       <c r="B10">
-        <v>4.6525200691084745</v>
+        <v>3.0202471923958143</v>
       </c>
       <c r="C10">
-        <v>0.50001119454859744</v>
+        <v>0.50010985833225152</v>
       </c>
       <c r="D10">
-        <v>0.50010268140750291</v>
+        <v>0.49996753368655966</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -530,13 +530,13 @@
         <v>0.01</v>
       </c>
       <c r="B11">
-        <v>4.739538474637798</v>
+        <v>0.21936693264102411</v>
       </c>
       <c r="C11">
-        <v>0.61705265161704048</v>
+        <v>0.49990355791923058</v>
       </c>
       <c r="D11">
-        <v>0.50009668375807514</v>
+        <v>0.49997246510607796</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -544,13 +544,13 @@
         <v>0.01</v>
       </c>
       <c r="B12">
-        <v>3.0158154488787461</v>
+        <v>1.5101181595940143</v>
       </c>
       <c r="C12">
-        <v>0.50009065270257591</v>
+        <v>0.49998902019345026</v>
       </c>
       <c r="D12">
-        <v>0.56386147936042708</v>
+        <v>0.49989737754959784</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -558,13 +558,13 @@
         <v>0.01</v>
       </c>
       <c r="B13">
-        <v>2.3496930152322202</v>
+        <v>5.7020149706718861</v>
       </c>
       <c r="C13">
-        <v>0.50005700244706675</v>
+        <v>0.49993317125398384</v>
       </c>
       <c r="D13">
-        <v>0.49991508774302673</v>
+        <v>0.50005500655731794</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -572,13 +572,13 @@
         <v>0.01</v>
       </c>
       <c r="B14">
-        <v>1.7591751827150572</v>
+        <v>3.6347492632627509</v>
       </c>
       <c r="C14">
-        <v>0.50005027955795711</v>
+        <v>0.50008232476267178</v>
       </c>
       <c r="D14">
-        <v>0.49992279958337632</v>
+        <v>0.50007498645328052</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -586,13 +586,13 @@
         <v>0.01</v>
       </c>
       <c r="B15">
-        <v>0.4964495254563826</v>
+        <v>5.8630706748321817</v>
       </c>
       <c r="C15">
-        <v>0.49992018234958513</v>
+        <v>0.49989477933720838</v>
       </c>
       <c r="D15">
-        <v>0.49994097557660933</v>
+        <v>0.50005742835083855</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -600,13 +600,13 @@
         <v>0.01</v>
       </c>
       <c r="B16">
-        <v>5.5981677797914573</v>
+        <v>4.9830657704907884</v>
       </c>
       <c r="C16">
-        <v>0.49992433783345402</v>
+        <v>0.66861100751925351</v>
       </c>
       <c r="D16">
-        <v>0.50004612282301797</v>
+        <v>0.50009442518191627</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -614,13 +614,13 @@
         <v>0.01</v>
       </c>
       <c r="B17">
-        <v>4.8173360132126746</v>
+        <v>1.8529248115749943</v>
       </c>
       <c r="C17">
-        <v>0.73348174618185302</v>
+        <v>0.50001799735604746</v>
       </c>
       <c r="D17">
-        <v>0.50010480767959642</v>
+        <v>0.4998847847625143</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -628,13 +628,13 @@
         <v>0.01</v>
       </c>
       <c r="B18">
-        <v>6.0785408134979129</v>
+        <v>4.4511073826297718</v>
       </c>
       <c r="C18">
-        <v>0.49991217061892979</v>
+        <v>0.500032492178065</v>
       </c>
       <c r="D18">
-        <v>0.50002234325529926</v>
+        <v>0.50009298642009625</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -642,13 +642,13 @@
         <v>0.01</v>
       </c>
       <c r="B19">
-        <v>2.1092317659401441</v>
+        <v>0.80596661507837619</v>
       </c>
       <c r="C19">
-        <v>0.50005091273838698</v>
+        <v>0.49992513531208838</v>
       </c>
       <c r="D19">
-        <v>0.49991373887581325</v>
+        <v>0.49991911715085846</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -656,1693 +656,6033 @@
         <v>0.01</v>
       </c>
       <c r="B20">
-        <v>3.6318544793405705</v>
+        <v>4.1931258190060436</v>
       </c>
       <c r="C20">
-        <v>0.50010890627256988</v>
+        <v>0.5000303513396358</v>
       </c>
       <c r="D20">
-        <v>0.50003349140364373</v>
+        <v>0.50006719110307807</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B21">
-        <v>1.596401626726264</v>
+        <v>0.94818249262132803</v>
       </c>
       <c r="C21">
-        <v>0.36768563033922552</v>
+        <v>0.49996049161748424</v>
       </c>
       <c r="D21">
-        <v>0.49990868417641177</v>
+        <v>0.49991786600123811</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B22">
-        <v>1.4182338511851114</v>
+        <v>3.8107626674187727</v>
       </c>
       <c r="C22">
-        <v>0.49998197986768411</v>
+        <v>0.50009053553032956</v>
       </c>
       <c r="D22">
-        <v>0.49992394137043927</v>
+        <v>0.50007925038975198</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B23">
-        <v>5.2357394445468923</v>
+        <v>1.0953666121585828</v>
       </c>
       <c r="C23">
-        <v>0.49994380508341685</v>
+        <v>0.49996350953974888</v>
       </c>
       <c r="D23">
-        <v>0.50009012786553608</v>
+        <v>0.49989048893430654</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B24">
-        <v>5.9015675916758124</v>
+        <v>1.2959515294876021</v>
       </c>
       <c r="C24">
-        <v>0.49989884103044863</v>
+        <v>3.2239352928833502E-2</v>
       </c>
       <c r="D24">
-        <v>0.50003750119345902</v>
+        <v>0.65676654403512202</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B25">
-        <v>2.4370643406235706</v>
+        <v>2.8879398770154685</v>
       </c>
       <c r="C25">
-        <v>0.50008634888165426</v>
+        <v>0.50009862678861494</v>
       </c>
       <c r="D25">
-        <v>0.49992574020425895</v>
+        <v>0.49998805982071148</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B26">
-        <v>2.4534291997753952</v>
+        <v>3.2232328006171524</v>
       </c>
       <c r="C26">
-        <v>0.500091174883182</v>
+        <v>0.50011072092334785</v>
       </c>
       <c r="D26">
-        <v>0.49993881233071447</v>
+        <v>0.47095236629671389</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B27">
-        <v>1.7599301893211732</v>
+        <v>0.51914539015797112</v>
       </c>
       <c r="C27">
-        <v>2.5068082248453916E-2</v>
+        <v>0.49991546969464684</v>
       </c>
       <c r="D27">
-        <v>0.63973371524478062</v>
+        <v>0.49994680347184189</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B28">
-        <v>3.2879470926861947</v>
+        <v>5.0976534468053121</v>
       </c>
       <c r="C28">
-        <v>0.5001032508900356</v>
+        <v>0.49995138421124191</v>
       </c>
       <c r="D28">
-        <v>0.50001330342017569</v>
+        <v>0.50008694744891979</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B29">
-        <v>0.10534930608985177</v>
+        <v>5.7948543547365494</v>
       </c>
       <c r="C29">
-        <v>0.4999166216422426</v>
+        <v>0.49989948137988899</v>
       </c>
       <c r="D29">
-        <v>0.24350657038176582</v>
+        <v>0.50003153536950062</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B30">
-        <v>3.1769632457831598</v>
+        <v>5.4173528985902388</v>
       </c>
       <c r="C30">
-        <v>0.50008293675964866</v>
+        <v>0.49990774832943985</v>
       </c>
       <c r="D30">
-        <v>0.50002265714665972</v>
+        <v>0.50007718916060284</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B31">
-        <v>5.8040340382920963</v>
+        <v>4.3610245622458006</v>
       </c>
       <c r="C31">
-        <v>0.49987283740791888</v>
+        <v>0.50003807893983743</v>
       </c>
       <c r="D31">
-        <v>0.50003751746391778</v>
+        <v>0.50008707796104268</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B32">
-        <v>3.0767990110489865</v>
+        <v>4.6238864530546664</v>
       </c>
       <c r="C32">
-        <v>0.50011147468385042</v>
+        <v>0.61064221810796693</v>
       </c>
       <c r="D32">
-        <v>0.42049187472023242</v>
+        <v>0.50011209788699518</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B33">
-        <v>1.1975278439267236</v>
+        <v>4.9621385845248129</v>
       </c>
       <c r="C33">
-        <v>0.49995968299579552</v>
+        <v>0.49998205671867318</v>
       </c>
       <c r="D33">
-        <v>0.4999126108121752</v>
+        <v>0.50007831736478181</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B34">
-        <v>0.9634799261162561</v>
+        <v>2.9858606042246021</v>
       </c>
       <c r="C34">
-        <v>0.4999497754323875</v>
+        <v>0.50010428321179212</v>
       </c>
       <c r="D34">
-        <v>0.49991518410602698</v>
+        <v>0.7145160728903911</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B35">
-        <v>4.0255288796478697</v>
+        <v>0.64022653895030068</v>
       </c>
       <c r="C35">
-        <v>0.50007610146224835</v>
+        <v>0.49992376944053174</v>
       </c>
       <c r="D35">
-        <v>0.50007476586471222</v>
+        <v>0.49992370694935856</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B36">
-        <v>0.49586111352620049</v>
+        <v>1.5606242659825231</v>
       </c>
       <c r="C36">
-        <v>0.49992505412801919</v>
+        <v>0.64350565988930364</v>
       </c>
       <c r="D36">
-        <v>0.49997469846790965</v>
+        <v>0.49992294890048727</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B37">
-        <v>0.32440415149033358</v>
+        <v>3.5923739717788123</v>
       </c>
       <c r="C37">
-        <v>0.49990735601441516</v>
+        <v>0.50009071696598939</v>
       </c>
       <c r="D37">
-        <v>0.49997255310638344</v>
+        <v>0.50004421181872372</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B38">
-        <v>0.69460468531526931</v>
+        <v>0.24883825951785679</v>
       </c>
       <c r="C38">
-        <v>0.49990496481858804</v>
+        <v>0.49989683586149436</v>
       </c>
       <c r="D38">
-        <v>0.49992695252357283</v>
+        <v>0.49996636953532247</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B39">
-        <v>1.0419079686239858</v>
+        <v>5.1168693654616035</v>
       </c>
       <c r="C39">
-        <v>0.49994707703737973</v>
+        <v>0.49997659569162944</v>
       </c>
       <c r="D39">
-        <v>0.49992329148862347</v>
+        <v>0.50007323910675883</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B40">
-        <v>1.796881680964163</v>
+        <v>3.4055837729583085</v>
       </c>
       <c r="C40">
-        <v>0.12546364069423716</v>
+        <v>0.50007352351765544</v>
       </c>
       <c r="D40">
-        <v>0.49987806177758465</v>
+        <v>0.31496583777068154</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="B41">
-        <v>4.6262229356048872</v>
+        <v>1.8753048541078818</v>
       </c>
       <c r="C41">
-        <v>0.50000030967552378</v>
+        <v>8.8652877509786954E-2</v>
       </c>
       <c r="D41">
-        <v>0.50012664498858095</v>
+        <v>0.71060161750521544</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="B42">
-        <v>2.6166322928395189</v>
+        <v>3.1068838483195256</v>
       </c>
       <c r="C42">
-        <v>0.50010344369655102</v>
+        <v>0.7373418738839419</v>
       </c>
       <c r="D42">
-        <v>0.49995005768487788</v>
+        <v>0.9108167216236267</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="B43">
-        <v>2.2478627645272389</v>
+        <v>4.9848153720554951</v>
       </c>
       <c r="C43">
-        <v>0.50007576042033697</v>
+        <v>0.49998618732201922</v>
       </c>
       <c r="D43">
-        <v>0.49991288964131719</v>
+        <v>0.50008318531725227</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="B44">
-        <v>3.1038117641348331</v>
+        <v>1.7085187645230964</v>
       </c>
       <c r="C44">
-        <v>0.50009708619517079</v>
+        <v>0.29169918648637871</v>
       </c>
       <c r="D44">
-        <v>0.49997771258402546</v>
+        <v>0.49992109233591608</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="B45">
-        <v>3.084022388311582</v>
+        <v>4.2526519691688431</v>
       </c>
       <c r="C45">
-        <v>0.50008732130753031</v>
+        <v>0.50005464019594248</v>
       </c>
       <c r="D45">
-        <v>0.49999726801874056</v>
+        <v>0.50007148051446215</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="B46">
-        <v>4.8304448229059957</v>
+        <v>0.96755178378211093</v>
       </c>
       <c r="C46">
-        <v>0.74874033563863884</v>
+        <v>0.49993878452460194</v>
       </c>
       <c r="D46">
-        <v>0.50008120144933776</v>
+        <v>0.4999024831913994</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="B47">
-        <v>5.9287006513903018</v>
+        <v>4.0619547036460171</v>
       </c>
       <c r="C47">
-        <v>0.49992382925308293</v>
+        <v>0.50006216030198836</v>
       </c>
       <c r="D47">
-        <v>0.50001919542391371</v>
+        <v>0.50007960394290674</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="B48">
-        <v>1.2892893037826449</v>
+        <v>4.6966693709752629</v>
       </c>
       <c r="C48">
-        <v>0.49996655650011301</v>
+        <v>0.49997625677092561</v>
       </c>
       <c r="D48">
-        <v>0.49989797523700308</v>
+        <v>0.5001180253999431</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="B49">
-        <v>0.99072823854243197</v>
+        <v>0.43409983158359849</v>
       </c>
       <c r="C49">
-        <v>0.49995382466291177</v>
+        <v>0.49992584572018384</v>
       </c>
       <c r="D49">
-        <v>0.49992032331695402</v>
+        <v>0.49997568137406728</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="B50">
-        <v>0.45903392408828086</v>
+        <v>2.0381303145152079</v>
       </c>
       <c r="C50">
-        <v>0.49992158369615008</v>
+        <v>0.50002130453380378</v>
       </c>
       <c r="D50">
-        <v>0.49995664339667689</v>
+        <v>0.49992281667758842</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="B51">
-        <v>0.96449654581125921</v>
+        <v>3.2168214453228221</v>
       </c>
       <c r="C51">
-        <v>0.49995112257652785</v>
+        <v>0.5000984288927286</v>
       </c>
       <c r="D51">
-        <v>0.4999348963217467</v>
+        <v>0.47132627156629425</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="B52">
-        <v>1.4531000516772237</v>
+        <v>3.06338904685395</v>
       </c>
       <c r="C52">
-        <v>0.49997990811254001</v>
+        <v>0.50010668749461473</v>
       </c>
       <c r="D52">
-        <v>0.49989535305489508</v>
+        <v>0.69510746136321711</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="B53">
-        <v>1.9753458129468551</v>
+        <v>2.6718069386748633</v>
       </c>
       <c r="C53">
-        <v>0.5000422537760012</v>
+        <v>0.50010338503682461</v>
       </c>
       <c r="D53">
-        <v>0.4999294840789239</v>
+        <v>0.49996508838800946</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="B54">
-        <v>6.2283903694370562</v>
+        <v>4.9352271832564343</v>
       </c>
       <c r="C54">
-        <v>0.49990448977063595</v>
+        <v>0.49998439800763528</v>
       </c>
       <c r="D54">
-        <v>0.5000072643063449</v>
+        <v>0.50010647464878755</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="B55">
-        <v>5.8871094178574515</v>
+        <v>1.0411750694928841</v>
       </c>
       <c r="C55">
-        <v>0.49992273108908236</v>
+        <v>0.49996015556016116</v>
       </c>
       <c r="D55">
-        <v>0.50002575086476253</v>
+        <v>0.49989518100342384</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="B56">
-        <v>4.1457963554299146</v>
+        <v>1.9583638830813681</v>
       </c>
       <c r="C56">
-        <v>0.50002597190821152</v>
+        <v>0.64778661109239222</v>
       </c>
       <c r="D56">
-        <v>0.50009299961264353</v>
+        <v>0.87854470941987817</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="B57">
-        <v>0.67103739226381975</v>
+        <v>0.18748842809823399</v>
       </c>
       <c r="C57">
-        <v>0.49992247608040064</v>
+        <v>0.49990891167100671</v>
       </c>
       <c r="D57">
-        <v>0.49991374950543221</v>
+        <v>0.77346342713463345</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="B58">
-        <v>4.7228485617239713</v>
+        <v>1.5643713452504788</v>
       </c>
       <c r="C58">
-        <v>0.56585473504421824</v>
+        <v>0.47276244134030249</v>
       </c>
       <c r="D58">
-        <v>0.50008590121880325</v>
+        <v>0.49990553195434917</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="B59">
-        <v>4.5020934219055633</v>
+        <v>2.6671028998143873</v>
       </c>
       <c r="C59">
-        <v>0.50001657435106939</v>
+        <v>0.5000770978050264</v>
       </c>
       <c r="D59">
-        <v>0.50010064478273364</v>
+        <v>0.49993754099037258</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="B60">
-        <v>5.9586703216495973</v>
+        <v>5.001894884128089</v>
       </c>
       <c r="C60">
-        <v>0.49991467982657367</v>
+        <v>0.74708623792559514</v>
       </c>
       <c r="D60">
-        <v>0.50002382155083591</v>
+        <v>0.5000998082683823</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="B61">
-        <v>2.7640503379079258</v>
+        <v>0.80697408072871291</v>
       </c>
       <c r="C61">
-        <v>0.50008806589837507</v>
+        <v>0.49993740707108358</v>
       </c>
       <c r="D61">
-        <v>0.49995621759686981</v>
+        <v>0.49993299063000052</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="B62">
-        <v>4.2670918467280909</v>
+        <v>3.16723962469597</v>
       </c>
       <c r="C62">
-        <v>0.50006151644372387</v>
+        <v>0.50008574752585577</v>
       </c>
       <c r="D62">
-        <v>0.50010359947847693</v>
+        <v>0.55169023296827435</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="B63">
-        <v>0.60297664843235177</v>
+        <v>0.96844506760260207</v>
       </c>
       <c r="C63">
-        <v>0.92038652720219449</v>
+        <v>0.49995764302832679</v>
       </c>
       <c r="D63">
-        <v>0.19124507714973937</v>
+        <v>0.49994314104766269</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="B64">
-        <v>4.6839221948593224</v>
+        <v>4.090909131355609</v>
       </c>
       <c r="C64">
-        <v>0.5000141784549792</v>
+        <v>0.50006005702640399</v>
       </c>
       <c r="D64">
-        <v>0.50007495543477543</v>
+        <v>0.50006837690092887</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="B65">
-        <v>4.5000433971329761</v>
+        <v>1.8328426058362619</v>
       </c>
       <c r="C65">
-        <v>0.50000552800464027</v>
+        <v>0.50004390813863087</v>
       </c>
       <c r="D65">
-        <v>0.5000641736588165</v>
+        <v>0.4999063702324138</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="B66">
-        <v>4.4918417980561332</v>
+        <v>3.7895400176621008</v>
       </c>
       <c r="C66">
-        <v>0.75929930080166108</v>
+        <v>0.50004684289108248</v>
       </c>
       <c r="D66">
-        <v>2.0902216620107827E-2</v>
+        <v>0.50008928627961113</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="B67">
-        <v>2.2496262069948569</v>
+        <v>1.8296795312724332</v>
       </c>
       <c r="C67">
-        <v>0.94202180891647114</v>
+        <v>0.60879846238610558</v>
       </c>
       <c r="D67">
-        <v>0.5742532284414531</v>
+        <v>0.35413845620946205</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="B68">
-        <v>3.3248916338520678</v>
+        <v>3.6612370059755479</v>
       </c>
       <c r="C68">
-        <v>0.50009988707097985</v>
+        <v>0.50009818560700214</v>
       </c>
       <c r="D68">
-        <v>0.46583669641016656</v>
+        <v>0.50005164726050766</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="B69">
-        <v>5.8103272870373903</v>
+        <v>0.14079382046619268</v>
       </c>
       <c r="C69">
-        <v>0.37825710737292639</v>
+        <v>0.49991568213502724</v>
       </c>
       <c r="D69">
-        <v>0.28752812352119195</v>
+        <v>0.48626056663639838</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="B70">
-        <v>1.4843774126776494</v>
+        <v>0.6824761643104944</v>
       </c>
       <c r="C70">
-        <v>0.49995880543274063</v>
+        <v>0.49992530317503636</v>
       </c>
       <c r="D70">
-        <v>0.49990749140910484</v>
+        <v>0.49994129369524215</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="B71">
-        <v>1.6724630598057022</v>
+        <v>0.27709574709693185</v>
       </c>
       <c r="C71">
-        <v>0.46124682162589625</v>
+        <v>0.49992792707383238</v>
       </c>
       <c r="D71">
-        <v>0.49991160498220166</v>
+        <v>0.49997772510312644</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="B72">
-        <v>1.3396082682587522</v>
+        <v>1.782461106805892</v>
       </c>
       <c r="C72">
-        <v>0.4999929243177092</v>
+        <v>0.16738029676718247</v>
       </c>
       <c r="D72">
-        <v>0.49990932409721456</v>
+        <v>0.5896812096642714</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="B73">
-        <v>1.7195261172442016</v>
+        <v>0.57095766121262903</v>
       </c>
       <c r="C73">
-        <v>0.46541785530502588</v>
+        <v>0.4999177882685899</v>
       </c>
       <c r="D73">
-        <v>0.49990891584246278</v>
+        <v>0.49992480893932545</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="B74">
-        <v>0.21841553982434864</v>
+        <v>1.8325959903404274</v>
       </c>
       <c r="C74">
-        <v>0.49986402292858756</v>
+        <v>0.72058638678833775</v>
       </c>
       <c r="D74">
-        <v>0.55890364886507493</v>
+        <v>0.33378864104208028</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="B75">
-        <v>5.5367333128584546</v>
+        <v>0.85025426224298628</v>
       </c>
       <c r="C75">
-        <v>0.49992244756592363</v>
+        <v>0.49996465725576655</v>
       </c>
       <c r="D75">
-        <v>0.50007729044284954</v>
+        <v>0.49991366425483197</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="B76">
-        <v>0.32393123892638886</v>
+        <v>1.8986260513303663</v>
       </c>
       <c r="C76">
-        <v>0.4998874238233082</v>
+        <v>0.23535441164644322</v>
       </c>
       <c r="D76">
-        <v>0.90763005994454504</v>
+        <v>0.49991685359924071</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="B77">
-        <v>0.80488426496896615</v>
+        <v>0.28546177700462022</v>
       </c>
       <c r="C77">
-        <v>0.49993998313460519</v>
+        <v>0.49988535548400614</v>
       </c>
       <c r="D77">
-        <v>0.49995452217893988</v>
+        <v>0.49996969879039938</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="B78">
-        <v>1.1504853056752593</v>
+        <v>0.81483642645247434</v>
       </c>
       <c r="C78">
-        <v>0.49998895908475571</v>
+        <v>0.49993193949393078</v>
       </c>
       <c r="D78">
-        <v>0.49991466809691509</v>
+        <v>0.49991813319934941</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="B79">
-        <v>3.9701283626351898</v>
+        <v>0.78694747738581661</v>
       </c>
       <c r="C79">
-        <v>0.20065153645401934</v>
+        <v>0.49991903699852447</v>
       </c>
       <c r="D79">
-        <v>0.67178187948250212</v>
+        <v>0.49993725025960489</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="B80">
-        <v>5.4549740477438906</v>
+        <v>3.4704501864150208</v>
       </c>
       <c r="C80">
-        <v>3.2762788082443567E-2</v>
+        <v>0.50007001999546663</v>
       </c>
       <c r="D80">
-        <v>0.36598210731738923</v>
+        <v>0.50002038879935451</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="B81">
-        <v>4.3004029015400658</v>
+        <v>5.6753114291043625</v>
       </c>
       <c r="C81">
-        <v>0.50004526927485937</v>
+        <v>0.49992007891280443</v>
       </c>
       <c r="D81">
-        <v>0.50008643981312795</v>
+        <v>0.50007070295051115</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="B82">
-        <v>4.5361832202096366</v>
+        <v>3.0368637781218464</v>
       </c>
       <c r="C82">
-        <v>0.35430701159998035</v>
+        <v>0.50009869296262899</v>
       </c>
       <c r="D82">
-        <v>0.66821928413242437</v>
+        <v>0.70438927513705374</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="B83">
-        <v>3.9471105855027213</v>
+        <v>3.1531984769462373</v>
       </c>
       <c r="C83">
-        <v>0.50008320332008815</v>
+        <v>0.50010976551521458</v>
       </c>
       <c r="D83">
-        <v>0.50009197064821409</v>
+        <v>0.30381386927022191</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="B84">
-        <v>1.1720891538075149</v>
+        <v>5.0565763517403637</v>
       </c>
       <c r="C84">
-        <v>0.49998076743735331</v>
+        <v>0.49994184517342782</v>
       </c>
       <c r="D84">
-        <v>0.49989798310003336</v>
+        <v>0.50011754745074866</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="B85">
-        <v>2.3951183986222553</v>
+        <v>2.2426359192097274</v>
       </c>
       <c r="C85">
-        <v>0.50005900528806457</v>
+        <v>0.50005411363064833</v>
       </c>
       <c r="D85">
-        <v>0.4999377901291937</v>
+        <v>0.49989111804118069</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="B86">
-        <v>1.8202975299171555</v>
+        <v>4.322378846201647</v>
       </c>
       <c r="C86">
-        <v>0.43821167662788585</v>
+        <v>0.50003440145995537</v>
       </c>
       <c r="D86">
-        <v>0.49989579036206144</v>
+        <v>0.50011039984992645</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="B87">
-        <v>5.4691656326042803</v>
+        <v>0.95162343603551969</v>
       </c>
       <c r="C87">
-        <v>0.78607415026360239</v>
+        <v>0.4999226416805691</v>
       </c>
       <c r="D87">
-        <v>0.50007027551057248</v>
+        <v>0.49992283969242191</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="B88">
-        <v>4.0185850889851773</v>
+        <v>5.4260999169355033</v>
       </c>
       <c r="C88">
-        <v>0.50005433173732428</v>
+        <v>0.49994285451869425</v>
       </c>
       <c r="D88">
-        <v>0.17844073748077804</v>
+        <v>0.50007039542064202</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="B89">
-        <v>3.5168517611718846</v>
+        <v>4.0286807795001547</v>
       </c>
       <c r="C89">
-        <v>0.50011688872960758</v>
+        <v>0.50005493739995788</v>
       </c>
       <c r="D89">
-        <v>0.43162229137678687</v>
+        <v>0.50008462391737019</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="B90">
-        <v>1.8401216857439671</v>
+        <v>3.0189811181177699</v>
       </c>
       <c r="C90">
-        <v>0.78047711126061015</v>
+        <v>0.50009148985606156</v>
       </c>
       <c r="D90">
-        <v>0.49991089083643747</v>
+        <v>0.49998334894489549</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="B91">
-        <v>3.0589185986638232</v>
+        <v>0.52230310876601249</v>
       </c>
       <c r="C91">
-        <v>0.50009160794707586</v>
+        <v>0.4999766726153716</v>
       </c>
       <c r="D91">
-        <v>0.49998656070060066</v>
+        <v>0.37748472783043718</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="B92">
-        <v>4.7070748885254412</v>
+        <v>2.3649079241151734</v>
       </c>
       <c r="C92">
-        <v>0.29755199761041018</v>
+        <v>0.50004260726720684</v>
       </c>
       <c r="D92">
-        <v>0.50004110076381103</v>
+        <v>0.49991957910731566</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="B93">
-        <v>6.1025504020471573</v>
+        <v>6.2606503960346975</v>
       </c>
       <c r="C93">
-        <v>0.49998122152757096</v>
+        <v>0.49989530406305382</v>
       </c>
       <c r="D93">
-        <v>0.25401154638780998</v>
+        <v>0.51318100897098873</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="B94">
-        <v>0.62345924381412599</v>
+        <v>2.4799605550507264</v>
       </c>
       <c r="C94">
-        <v>0.49992135454253783</v>
+        <v>4.7579565726885487E-2</v>
       </c>
       <c r="D94">
-        <v>0.46043831686265047</v>
+        <v>0.6502626429859939</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="B95">
-        <v>5.7024405762343076</v>
+        <v>4.6985967016265358</v>
       </c>
       <c r="C95">
-        <v>0.49989794969745199</v>
+        <v>0.50002727470093755</v>
       </c>
       <c r="D95">
-        <v>0.50007252344696806</v>
+        <v>0.5000853836588488</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="B96">
-        <v>2.9283437189942454</v>
+        <v>0.59214352254155156</v>
       </c>
       <c r="C96">
-        <v>0.50012852909963024</v>
+        <v>0.49991252388195884</v>
       </c>
       <c r="D96">
-        <v>0.4999708903185997</v>
+        <v>0.499923471408936</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="B97">
-        <v>2.7292654441474156</v>
+        <v>2.8254804262065054</v>
       </c>
       <c r="C97">
-        <v>0.50008528295683496</v>
+        <v>0.50008681949003853</v>
       </c>
       <c r="D97">
-        <v>0.49997901003574874</v>
+        <v>0.49996884795993424</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="B98">
-        <v>4.0207906724584594</v>
+        <v>3.3548612019536823</v>
       </c>
       <c r="C98">
-        <v>0.50008531273137047</v>
+        <v>0.50008780856919022</v>
       </c>
       <c r="D98">
-        <v>0.50007022244811283</v>
+        <v>0.50004192274370318</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="B99">
-        <v>0.90481390171498643</v>
+        <v>6.0865623927842041</v>
       </c>
       <c r="C99">
-        <v>0.49993876665108428</v>
+        <v>0.93952665778188171</v>
       </c>
       <c r="D99">
-        <v>0.92885938414260294</v>
+        <v>0.91639971236514983</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="B100">
-        <v>2.9246267650496929</v>
+        <v>3.6273908853303074</v>
       </c>
       <c r="C100">
-        <v>0.50002838035901842</v>
+        <v>0.50007760010183966</v>
       </c>
       <c r="D100">
-        <v>0.72275938156218733</v>
+        <v>0.50005873540020596</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="B101">
-        <v>2.8974463659836234</v>
+        <v>3.1151225427475979</v>
       </c>
       <c r="C101">
-        <v>1.7027455461251728E-2</v>
+        <v>0.50011224731871762</v>
       </c>
       <c r="D101">
-        <v>0.48387514757411232</v>
+        <v>0.42602490651775748</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="B102">
-        <v>0.18157835880993023</v>
+        <v>3.2948991583702494</v>
       </c>
       <c r="C102">
-        <v>0.8541586568489471</v>
+        <v>0.50009147790730091</v>
       </c>
       <c r="D102">
-        <v>0.71063520920185042</v>
+        <v>0.35324482039063448</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="B103">
-        <v>4.8051190866378235</v>
+        <v>5.5065755889963901</v>
       </c>
       <c r="C103">
-        <v>0.62954403311783802</v>
+        <v>0.4999230958897849</v>
       </c>
       <c r="D103">
-        <v>0.92225879128772714</v>
+        <v>0.50006647095563728</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="B104">
-        <v>0.98735026945525217</v>
+        <v>1.327795206851847</v>
       </c>
       <c r="C104">
-        <v>0.34502367214380364</v>
+        <v>0.49997286402817975</v>
       </c>
       <c r="D104">
-        <v>2.7814874108894827E-2</v>
+        <v>0.49990847142442218</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="B105">
-        <v>5.0094295660405193</v>
+        <v>5.9798276820388931</v>
       </c>
       <c r="C105">
-        <v>0.66417797616963736</v>
+        <v>0.49992455476632569</v>
       </c>
       <c r="D105">
-        <v>0.9168930231945529</v>
+        <v>0.50002039250651409</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="B106">
-        <v>4.9030669904799327</v>
+        <v>3.4198203392623885</v>
       </c>
       <c r="C106">
-        <v>0.72504997742052213</v>
+        <v>0.53704324281521987</v>
       </c>
       <c r="D106">
-        <v>2.0606542981242204E-2</v>
+        <v>0.87373923009340371</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="B107">
-        <v>3.9303376581147158</v>
+        <v>9.6130438766698717E-2</v>
       </c>
       <c r="C107">
-        <v>0.79400126870591681</v>
+        <v>0.49987961366324796</v>
       </c>
       <c r="D107">
-        <v>7.383246781498265E-2</v>
+        <v>0.49998836953046083</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="B108">
-        <v>4.5272048547717842</v>
+        <v>0.67433784276153275</v>
       </c>
       <c r="C108">
-        <v>0.51055411880912294</v>
+        <v>0.49992507005865428</v>
       </c>
       <c r="D108">
-        <v>0.83640771931733315</v>
+        <v>0.49990967360848559</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="B109">
-        <v>0.59051112753873247</v>
+        <v>0.69827111827484911</v>
       </c>
       <c r="C109">
-        <v>6.8215667922935541E-2</v>
+        <v>0.49993001365889977</v>
       </c>
       <c r="D109">
-        <v>0.61629499792401532</v>
+        <v>0.49993818449359906</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="B110">
-        <v>3.8542788286564189</v>
+        <v>1.1490664732423472</v>
       </c>
       <c r="C110">
-        <v>0.99085304970690558</v>
+        <v>0.49994253021353235</v>
       </c>
       <c r="D110">
-        <v>0.16080659275500375</v>
+        <v>0.49994888555792816</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="B111">
-        <v>3.8733098049391157</v>
+        <v>6.0936264250231726</v>
       </c>
       <c r="C111">
-        <v>0.76199126772164383</v>
+        <v>0.49990200374841376</v>
       </c>
       <c r="D111">
-        <v>0.38154483523044913</v>
+        <v>0.50002123585270097</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="B112">
-        <v>2.5808104694556793</v>
+        <v>1.1428537098167546</v>
       </c>
       <c r="C112">
-        <v>0.86089739853314162</v>
+        <v>0.49996270850635249</v>
       </c>
       <c r="D112">
-        <v>0.29554943969323644</v>
+        <v>0.49991338613512015</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="B113">
-        <v>1.442923782731474</v>
+        <v>1.1370911483595303</v>
       </c>
       <c r="C113">
-        <v>0.61932929500170464</v>
+        <v>0.49995704218515302</v>
       </c>
       <c r="D113">
-        <v>0.14383285698485704</v>
+        <v>0.49990603288917135</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="B114">
-        <v>3.011848876796547</v>
+        <v>0.10366692493027939</v>
       </c>
       <c r="C114">
-        <v>0.17253717723470174</v>
+        <v>0.49989791321992261</v>
       </c>
       <c r="D114">
-        <v>0.28901269236937477</v>
+        <v>0.55720571402988472</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="B115">
-        <v>5.7287916540893313</v>
+        <v>5.1721346010302547</v>
       </c>
       <c r="C115">
-        <v>0.75603351654404438</v>
+        <v>0.79336835497451164</v>
       </c>
       <c r="D115">
-        <v>0.78494039493945333</v>
+        <v>0.50011337107357523</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="B116">
-        <v>2.4427410524417086</v>
+        <v>2.1357890341426811</v>
       </c>
       <c r="C116">
-        <v>0.96042555220800141</v>
+        <v>0.50006288047098701</v>
       </c>
       <c r="D116">
-        <v>0.41622621888914013</v>
+        <v>0.49994555128089901</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="B117">
-        <v>5.0851854696862047</v>
+        <v>4.4228016348447552</v>
       </c>
       <c r="C117">
-        <v>0.76267719552742319</v>
+        <v>0.50004083722559844</v>
       </c>
       <c r="D117">
-        <v>0.70163183017429787</v>
+        <v>0.50012479419462963</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="B118">
-        <v>0.18963857721764832</v>
+        <v>4.4910259705960751</v>
       </c>
       <c r="C118">
-        <v>0.91434363842464661</v>
+        <v>0.50002370489585601</v>
       </c>
       <c r="D118">
-        <v>0.72232336662197394</v>
+        <v>0.50011484811933826</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="B119">
-        <v>2.4971772845027456</v>
+        <v>5.2718943479519904</v>
       </c>
       <c r="C119">
-        <v>0.93666386322793382</v>
+        <v>0.49994717018051738</v>
       </c>
       <c r="D119">
-        <v>0.42442289909978692</v>
+        <v>0.50007266481308132</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="B120">
-        <v>4.6271077352856871</v>
+        <v>1.3637867242958748</v>
       </c>
       <c r="C120">
-        <v>0.47815926278680099</v>
+        <v>0.49997631117625208</v>
       </c>
       <c r="D120">
-        <v>0.76987366371264532</v>
+        <v>0.49990982565797182</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="B121">
-        <v>5.0724152177549184</v>
+        <v>4.7254523443810799</v>
       </c>
       <c r="C121">
-        <v>0.32922501301780982</v>
+        <v>0.52197569431120217</v>
       </c>
       <c r="D121">
-        <v>0.77675760272223238</v>
+        <v>0.50008197289504341</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="B122">
-        <v>5.0974676319219698</v>
+        <v>9.8099881700168812E-2</v>
       </c>
       <c r="C122">
-        <v>0.62261975424674776</v>
+        <v>0.49990110286749001</v>
       </c>
       <c r="D122">
-        <v>0.89448282621782649</v>
+        <v>0.56245961473317552</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="B123">
-        <v>6.1751103052584462</v>
+        <v>0.87926952568031047</v>
       </c>
       <c r="C123">
-        <v>0.14503814403531523</v>
+        <v>0.49995776023073546</v>
       </c>
       <c r="D123">
-        <v>0.1653433333127694</v>
+        <v>0.49993588400096423</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="B124">
-        <v>5.1846152205038916</v>
+        <v>2.898670040987172</v>
       </c>
       <c r="C124">
-        <v>0.27307861243578085</v>
+        <v>0.50009340717980955</v>
       </c>
       <c r="D124">
-        <v>0.25740124550075394</v>
+        <v>0.49997649627173013</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="B125">
-        <v>5.073578944067628</v>
+        <v>2.4368549424058865</v>
       </c>
       <c r="C125">
-        <v>0.87888092631945491</v>
+        <v>0.50008724662502235</v>
       </c>
       <c r="D125">
-        <v>0.85234456574020268</v>
+        <v>0.49995563088797401</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="B126">
-        <v>0.43402070541327387</v>
+        <v>1.8938905133240904</v>
       </c>
       <c r="C126">
-        <v>0.31984947116194751</v>
+        <v>0.35844784022727771</v>
       </c>
       <c r="D126">
-        <v>0.87916896479370066</v>
+        <v>0.49989979272508278</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="B127">
-        <v>2.753316358818271</v>
+        <v>5.3612466323620618</v>
       </c>
       <c r="C127">
-        <v>0.1894596878297452</v>
+        <v>0.49993542111513767</v>
       </c>
       <c r="D127">
-        <v>0.47675382845401193</v>
+        <v>0.50007708705796294</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="B128">
-        <v>0.3885323269672778</v>
+        <v>2.7572750371333856</v>
       </c>
       <c r="C128">
-        <v>0.16129354100478488</v>
+        <v>0.50010962288589478</v>
       </c>
       <c r="D128">
-        <v>0.23795897765740484</v>
+        <v>0.49997416359718794</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="B129">
-        <v>4.9866408048084381</v>
+        <v>1.3095951245846005</v>
       </c>
       <c r="C129">
-        <v>0.64872863053361751</v>
+        <v>0.49993428780164262</v>
       </c>
       <c r="D129">
-        <v>0.16778558458638032</v>
+        <v>0.49991114768399614</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="B130">
-        <v>5.7744803143523313</v>
+        <v>0.57867623356362174</v>
       </c>
       <c r="C130">
-        <v>0.23499865275115361</v>
+        <v>0.49991624432092885</v>
       </c>
       <c r="D130">
-        <v>9.304165154877532E-2</v>
+        <v>0.4999469493536568</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="B131">
-        <v>4.9508970577390263</v>
+        <v>0.6732200607060238</v>
       </c>
       <c r="C131">
-        <v>8.4031319962895035E-2</v>
+        <v>0.49992048379489895</v>
       </c>
       <c r="D131">
-        <v>0.5942170311179642</v>
+        <v>0.49993958732886545</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="B132">
-        <v>5.3705892017265526</v>
+        <v>0.2418172355418732</v>
       </c>
       <c r="C132">
-        <v>0.13674993645433198</v>
+        <v>0.55938774582924777</v>
       </c>
       <c r="D132">
-        <v>0.24862055313272946</v>
+        <v>0.18801218398929076</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="B133">
-        <v>0.79920993312056954</v>
+        <v>4.2509764588168553</v>
       </c>
       <c r="C133">
-        <v>0.89967064470132285</v>
+        <v>0.50003188717762681</v>
       </c>
       <c r="D133">
-        <v>0.40699219936888742</v>
+        <v>0.50008507547524195</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="B134">
-        <v>3.8838954725646482</v>
+        <v>5.0714235473832767</v>
       </c>
       <c r="C134">
-        <v>0.8698838781690631</v>
+        <v>7.97873752864664E-3</v>
       </c>
       <c r="D134">
-        <v>0.7048966519436497</v>
+        <v>0.78375970514200244</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="B135">
-        <v>4.4522892458241374</v>
+        <v>2.7106646199972295</v>
       </c>
       <c r="C135">
-        <v>0.50003860919996446</v>
+        <v>0.5000887660667459</v>
       </c>
       <c r="D135">
-        <v>1.41145390807631E-2</v>
+        <v>0.49995183285905487</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="B136">
-        <v>1.395946126418838</v>
+        <v>9.3658868064367851E-2</v>
       </c>
       <c r="C136">
-        <v>0.40890663463323973</v>
+        <v>0.49990907959474384</v>
       </c>
       <c r="D136">
-        <v>0.68431293104197466</v>
+        <v>0.63596072989472407</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="B137">
-        <v>9.257669259674195E-3</v>
+        <v>1.5938617258141181</v>
       </c>
       <c r="C137">
-        <v>7.1736367668096213E-2</v>
+        <v>0.37585731554285573</v>
       </c>
       <c r="D137">
-        <v>0.86003982049302707</v>
+        <v>0.49988959261780597</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="B138">
-        <v>5.225523259137665</v>
+        <v>3.3554323229358376</v>
       </c>
       <c r="C138">
-        <v>0.88412640165917744</v>
+        <v>0.82766513631123106</v>
       </c>
       <c r="D138">
-        <v>0.24000130047283341</v>
+        <v>0.9978953830334184</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="B139">
-        <v>6.2761327447640554</v>
+        <v>4.8408043435008903</v>
       </c>
       <c r="C139">
-        <v>0.95656262011629045</v>
+        <v>0.52316971814649227</v>
       </c>
       <c r="D139">
-        <v>0.50830359705747397</v>
+        <v>0.50010590379277264</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
+        <v>0.1</v>
+      </c>
+      <c r="B140">
+        <v>0.72629398003933265</v>
+      </c>
+      <c r="C140">
+        <v>0.49992380211526455</v>
+      </c>
+      <c r="D140">
+        <v>0.49994281567110077</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>0.1</v>
+      </c>
+      <c r="B141">
+        <v>1.9732439192936893</v>
+      </c>
+      <c r="C141">
+        <v>0.64391497566786127</v>
+      </c>
+      <c r="D141">
+        <v>0.41243850157777884</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>0.1</v>
+      </c>
+      <c r="B142">
+        <v>4.8448824267695416</v>
+      </c>
+      <c r="C142">
+        <v>0.52157756000653333</v>
+      </c>
+      <c r="D142">
+        <v>0.50011732453577196</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>0.1</v>
+      </c>
+      <c r="B143">
+        <v>2.7191818363766549</v>
+      </c>
+      <c r="C143">
+        <v>0.5000890593527153</v>
+      </c>
+      <c r="D143">
+        <v>0.49995067475614208</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>0.1</v>
+      </c>
+      <c r="B144">
+        <v>0.18000543661629034</v>
+      </c>
+      <c r="C144">
+        <v>0.49990643739808638</v>
+      </c>
+      <c r="D144">
+        <v>0.63697926315807174</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>0.1</v>
+      </c>
+      <c r="B145">
+        <v>3.6455642982846541</v>
+      </c>
+      <c r="C145">
+        <v>0.82852843548049881</v>
+      </c>
+      <c r="D145">
+        <v>0.8876813082857784</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>0.1</v>
+      </c>
+      <c r="B146">
+        <v>0.43092471709608571</v>
+      </c>
+      <c r="C146">
+        <v>0.49989404553283412</v>
+      </c>
+      <c r="D146">
+        <v>0.68048955479401607</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>0.1</v>
+      </c>
+      <c r="B147">
+        <v>4.7354586834510348</v>
+      </c>
+      <c r="C147">
+        <v>0.5066166783710524</v>
+      </c>
+      <c r="D147">
+        <v>0.50011629777942712</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>0.1</v>
+      </c>
+      <c r="B148">
+        <v>5.7756363551356129</v>
+      </c>
+      <c r="C148">
+        <v>0.49993389156223556</v>
+      </c>
+      <c r="D148">
+        <v>0.553010617349596</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>0.1</v>
+      </c>
+      <c r="B149">
+        <v>3.4075290238094476</v>
+      </c>
+      <c r="C149">
+        <v>0.5000820728850166</v>
+      </c>
+      <c r="D149">
+        <v>0.23323521342689946</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>0.1</v>
+      </c>
+      <c r="B150">
+        <v>0.90744052529546604</v>
+      </c>
+      <c r="C150">
+        <v>0.49992469182122878</v>
+      </c>
+      <c r="D150">
+        <v>0.49992317296236166</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>0.3</v>
+      </c>
+      <c r="B151">
+        <v>2.9906459466264468</v>
+      </c>
+      <c r="C151">
+        <v>0.5000963556704745</v>
+      </c>
+      <c r="D151">
+        <v>0.36676420032462964</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>0.3</v>
+      </c>
+      <c r="B152">
+        <v>3.8384531173863947</v>
+      </c>
+      <c r="C152">
+        <v>0.50008213197228102</v>
+      </c>
+      <c r="D152">
+        <v>0.50000342176181523</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>0.3</v>
+      </c>
+      <c r="B153">
+        <v>1.2376968781560818</v>
+      </c>
+      <c r="C153">
+        <v>0.49994409733011747</v>
+      </c>
+      <c r="D153">
+        <v>0.49992965641351339</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>0.3</v>
+      </c>
+      <c r="B154">
+        <v>1.0527227378434227</v>
+      </c>
+      <c r="C154">
+        <v>0.4999597485270868</v>
+      </c>
+      <c r="D154">
+        <v>0.49990437471100524</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>0.3</v>
+      </c>
+      <c r="B155">
+        <v>5.9484180905945516</v>
+      </c>
+      <c r="C155">
+        <v>0.49991067086779761</v>
+      </c>
+      <c r="D155">
+        <v>0.50002711921327636</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>0.3</v>
+      </c>
+      <c r="B156">
+        <v>1.1374387979905092</v>
+      </c>
+      <c r="C156">
+        <v>0.49994688140283561</v>
+      </c>
+      <c r="D156">
+        <v>0.4999091741661692</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>0.3</v>
+      </c>
+      <c r="B157">
+        <v>4.1546163447076374</v>
+      </c>
+      <c r="C157">
+        <v>0.50004860941432749</v>
+      </c>
+      <c r="D157">
+        <v>0.50008718295674992</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>0.3</v>
+      </c>
+      <c r="B158">
+        <v>4.2943745566199496</v>
+      </c>
+      <c r="C158">
+        <v>0.50002788402200926</v>
+      </c>
+      <c r="D158">
+        <v>0.50009585536763934</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>0.3</v>
+      </c>
+      <c r="B159">
+        <v>6.0914969685079949</v>
+      </c>
+      <c r="C159">
+        <v>0.49990641677314418</v>
+      </c>
+      <c r="D159">
+        <v>0.5000192309226752</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>0.3</v>
+      </c>
+      <c r="B160">
+        <v>7.8000855308421005E-2</v>
+      </c>
+      <c r="C160">
+        <v>0.49987922808001284</v>
+      </c>
+      <c r="D160">
+        <v>0.6158623791223502</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>0.3</v>
+      </c>
+      <c r="B161">
+        <v>4.4188185670183451</v>
+      </c>
+      <c r="C161">
+        <v>0.50002873969278128</v>
+      </c>
+      <c r="D161">
+        <v>0.50010996571935895</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>0.3</v>
+      </c>
+      <c r="B162">
+        <v>0.83752054746637317</v>
+      </c>
+      <c r="C162">
+        <v>0.49990848985192038</v>
+      </c>
+      <c r="D162">
+        <v>0.4999363584648937</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>0.3</v>
+      </c>
+      <c r="B163">
+        <v>0.15027371330066702</v>
+      </c>
+      <c r="C163">
+        <v>0.49990638051781844</v>
+      </c>
+      <c r="D163">
+        <v>0.56048558212708555</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>0.3</v>
+      </c>
+      <c r="B164">
+        <v>6.1603876202903285</v>
+      </c>
+      <c r="C164">
+        <v>0.49988718596153048</v>
+      </c>
+      <c r="D164">
+        <v>0.51255097353406787</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>0.3</v>
+      </c>
+      <c r="B165">
+        <v>1.9027214173943054</v>
+      </c>
+      <c r="C165">
+        <v>0.14291791059050496</v>
+      </c>
+      <c r="D165">
+        <v>0.66516535068569049</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>0.3</v>
+      </c>
+      <c r="B166">
+        <v>1.2056327236246362</v>
+      </c>
+      <c r="C166">
+        <v>0.49998092693097962</v>
+      </c>
+      <c r="D166">
+        <v>0.49989669658758562</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>0.3</v>
+      </c>
+      <c r="B167">
+        <v>5.7526677089393434</v>
+      </c>
+      <c r="C167">
+        <v>0.49992263556670302</v>
+      </c>
+      <c r="D167">
+        <v>0.50002483966634914</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>0.3</v>
+      </c>
+      <c r="B168">
+        <v>5.9187273898266763</v>
+      </c>
+      <c r="C168">
+        <v>0.49991433668508933</v>
+      </c>
+      <c r="D168">
+        <v>0.50004476161729272</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>0.3</v>
+      </c>
+      <c r="B169">
+        <v>3.4616393420124023</v>
+      </c>
+      <c r="C169">
+        <v>0.50010762313786328</v>
+      </c>
+      <c r="D169">
+        <v>0.32516839080731197</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>0.3</v>
+      </c>
+      <c r="B170">
+        <v>0.65793347593338247</v>
+      </c>
+      <c r="C170">
+        <v>0.49992665725785645</v>
+      </c>
+      <c r="D170">
+        <v>0.49997217958031459</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>0.3</v>
+      </c>
+      <c r="B171">
+        <v>2.9280879887043532</v>
+      </c>
+      <c r="C171">
+        <v>0.50009604283427955</v>
+      </c>
+      <c r="D171">
+        <v>0.49998660564796005</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>0.3</v>
+      </c>
+      <c r="B172">
+        <v>4.1343665293667851</v>
+      </c>
+      <c r="C172">
+        <v>0.50007088998259119</v>
+      </c>
+      <c r="D172">
+        <v>0.50007842762672605</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>0.3</v>
+      </c>
+      <c r="B173">
+        <v>3.1218024465022713</v>
+      </c>
+      <c r="C173">
+        <v>0.50011639296340071</v>
+      </c>
+      <c r="D173">
+        <v>0.49999804187005448</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>0.3</v>
+      </c>
+      <c r="B174">
+        <v>0.52058385463045576</v>
+      </c>
+      <c r="C174">
+        <v>0.49990609230206839</v>
+      </c>
+      <c r="D174">
+        <v>0.85158517557936264</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>0.3</v>
+      </c>
+      <c r="B175">
+        <v>0.52285341564058552</v>
+      </c>
+      <c r="C175">
+        <v>0.49991344182543029</v>
+      </c>
+      <c r="D175">
+        <v>0.49996568167812061</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>0.3</v>
+      </c>
+      <c r="B176">
+        <v>1.0595088399583106</v>
+      </c>
+      <c r="C176">
+        <v>0.49994280101941646</v>
+      </c>
+      <c r="D176">
+        <v>0.49992930850660766</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>0.3</v>
+      </c>
+      <c r="B177">
+        <v>1.9578615799279531</v>
+      </c>
+      <c r="C177">
+        <v>0.17663134436196248</v>
+      </c>
+      <c r="D177">
+        <v>0.49993055277988691</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>0.3</v>
+      </c>
+      <c r="B178">
+        <v>3.4102430226818337</v>
+      </c>
+      <c r="C178">
+        <v>0.50011195201698566</v>
+      </c>
+      <c r="D178">
+        <v>0.27622612474825781</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>0.3</v>
+      </c>
+      <c r="B179">
+        <v>3.2770502117909008</v>
+      </c>
+      <c r="C179">
+        <v>0.50010757342677881</v>
+      </c>
+      <c r="D179">
+        <v>0.67357176719642076</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>0.3</v>
+      </c>
+      <c r="B180">
+        <v>5.9817702619391033</v>
+      </c>
+      <c r="C180">
+        <v>0.49990298357020913</v>
+      </c>
+      <c r="D180">
+        <v>0.50005864959094892</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>0.3</v>
+      </c>
+      <c r="B181">
+        <v>5.7106920687605633</v>
+      </c>
+      <c r="C181">
+        <v>0.49993308725439517</v>
+      </c>
+      <c r="D181">
+        <v>0.50005726713328946</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>0.3</v>
+      </c>
+      <c r="B182">
+        <v>3.94096047486472</v>
+      </c>
+      <c r="C182">
+        <v>0.50008087802816759</v>
+      </c>
+      <c r="D182">
+        <v>0.50010359214407607</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>0.3</v>
+      </c>
+      <c r="B183">
+        <v>4.6970671431470103</v>
+      </c>
+      <c r="C183">
+        <v>0.50003292008642219</v>
+      </c>
+      <c r="D183">
+        <v>0.50009407421814389</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>0.3</v>
+      </c>
+      <c r="B184">
+        <v>2.628315319901565</v>
+      </c>
+      <c r="C184">
+        <v>0.50007873151739934</v>
+      </c>
+      <c r="D184">
+        <v>0.4999381999177106</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>0.3</v>
+      </c>
+      <c r="B185">
+        <v>2.0766050783225607</v>
+      </c>
+      <c r="C185">
+        <v>7.924094311936436E-2</v>
+      </c>
+      <c r="D185">
+        <v>0.66605183328775008</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>0.3</v>
+      </c>
+      <c r="B186">
+        <v>3.6731879680143078</v>
+      </c>
+      <c r="C186">
+        <v>0.93276817926144684</v>
+      </c>
+      <c r="D186">
+        <v>0.80645710766318057</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>0.3</v>
+      </c>
+      <c r="B187">
+        <v>4.0923055834055742</v>
+      </c>
+      <c r="C187">
+        <v>0.50004959340339283</v>
+      </c>
+      <c r="D187">
+        <v>0.50008099418021668</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>0.3</v>
+      </c>
+      <c r="B188">
+        <v>4.9133603747600452</v>
+      </c>
+      <c r="C188">
+        <v>0.62245062323939981</v>
+      </c>
+      <c r="D188">
+        <v>0.50011747064148948</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>0.3</v>
+      </c>
+      <c r="B189">
+        <v>0.70797582375171286</v>
+      </c>
+      <c r="C189">
+        <v>0.89463648562151299</v>
+      </c>
+      <c r="D189">
+        <v>0.16321568557847232</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>0.3</v>
+      </c>
+      <c r="B190">
+        <v>4.1054082428616336</v>
+      </c>
+      <c r="C190">
+        <v>0.500070122942467</v>
+      </c>
+      <c r="D190">
+        <v>0.50006356318646117</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>0.3</v>
+      </c>
+      <c r="B191">
+        <v>2.5264676423975243</v>
+      </c>
+      <c r="C191">
+        <v>0.50007576904964213</v>
+      </c>
+      <c r="D191">
+        <v>0.49995101047172641</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>0.3</v>
+      </c>
+      <c r="B192">
+        <v>5.4461652821191544</v>
+      </c>
+      <c r="C192">
+        <v>0.12992838813640883</v>
+      </c>
+      <c r="D192">
+        <v>5.8600026751165935E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>0.3</v>
+      </c>
+      <c r="B193">
+        <v>4.3791261722489914</v>
+      </c>
+      <c r="C193">
+        <v>0.50004918492004924</v>
+      </c>
+      <c r="D193">
+        <v>0.50009072967669499</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>0.3</v>
+      </c>
+      <c r="B194">
+        <v>5.4575601979910839</v>
+      </c>
+      <c r="C194">
+        <v>0.29305546297881802</v>
+      </c>
+      <c r="D194">
+        <v>0.78153727411982821</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>0.3</v>
+      </c>
+      <c r="B195">
+        <v>0.37798331247985273</v>
+      </c>
+      <c r="C195">
+        <v>0.69244367667404116</v>
+      </c>
+      <c r="D195">
+        <v>0.17697807987049297</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>0.3</v>
+      </c>
+      <c r="B196">
+        <v>4.5628738944584972</v>
+      </c>
+      <c r="C196">
+        <v>0.5000396607029316</v>
+      </c>
+      <c r="D196">
+        <v>0.50010426522079166</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>0.3</v>
+      </c>
+      <c r="B197">
+        <v>5.0120341900491381</v>
+      </c>
+      <c r="C197">
+        <v>0.49996928454543754</v>
+      </c>
+      <c r="D197">
+        <v>0.5000910128880709</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>0.3</v>
+      </c>
+      <c r="B198">
+        <v>5.6804415026835358</v>
+      </c>
+      <c r="C198">
+        <v>0.49990924723557928</v>
+      </c>
+      <c r="D198">
+        <v>0.5000409715358316</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>0.3</v>
+      </c>
+      <c r="B199">
+        <v>4.4905841966795919</v>
+      </c>
+      <c r="C199">
+        <v>0.50002956873151305</v>
+      </c>
+      <c r="D199">
+        <v>0.50008645955450026</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>0.3</v>
+      </c>
+      <c r="B200">
+        <v>3.2755414164578718</v>
+      </c>
+      <c r="C200">
+        <v>0.50010177257737087</v>
+      </c>
+      <c r="D200">
+        <v>0.39511431016128895</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>0.6</v>
+      </c>
+      <c r="B201">
+        <v>1.3057992155927618</v>
+      </c>
+      <c r="C201">
+        <v>0.4999517648593394</v>
+      </c>
+      <c r="D201">
+        <v>0.49990034297811392</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>0.6</v>
+      </c>
+      <c r="B202">
+        <v>5.4211043657889597</v>
+      </c>
+      <c r="C202">
+        <v>0.98452287415454931</v>
+      </c>
+      <c r="D202">
+        <v>0.26789288505357978</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>0.6</v>
+      </c>
+      <c r="B203">
+        <v>0.28333626004869056</v>
+      </c>
+      <c r="C203">
+        <v>0.49989374465502401</v>
+      </c>
+      <c r="D203">
+        <v>0.59294834004225738</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>0.6</v>
+      </c>
+      <c r="B204">
+        <v>4.2762966414810721</v>
+      </c>
+      <c r="C204">
+        <v>0.50001817613303579</v>
+      </c>
+      <c r="D204">
+        <v>0.50008679225336161</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>0.6</v>
+      </c>
+      <c r="B205">
+        <v>4.5463008904827094</v>
+      </c>
+      <c r="C205">
+        <v>0.50004032983312241</v>
+      </c>
+      <c r="D205">
+        <v>0.50012081143348741</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>0.6</v>
+      </c>
+      <c r="B206">
+        <v>4.0320340027183681</v>
+      </c>
+      <c r="C206">
+        <v>0.99963483846371348</v>
+      </c>
+      <c r="D206">
+        <v>0.81033331238483308</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>0.6</v>
+      </c>
+      <c r="B207">
+        <v>0.98941824572524528</v>
+      </c>
+      <c r="C207">
+        <v>7.5853942131469454E-2</v>
+      </c>
+      <c r="D207">
+        <v>0.45722139659031713</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>0.6</v>
+      </c>
+      <c r="B208">
+        <v>1.6204271659091471</v>
+      </c>
+      <c r="C208">
+        <v>0.20164279572936294</v>
+      </c>
+      <c r="D208">
+        <v>0.27435116726681685</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>0.6</v>
+      </c>
+      <c r="B209">
+        <v>4.7954834722456798</v>
+      </c>
+      <c r="C209">
+        <v>0.57829101553570705</v>
+      </c>
+      <c r="D209">
+        <v>0.50011149439690428</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>0.6</v>
+      </c>
+      <c r="B210">
+        <v>4.5553915608471796</v>
+      </c>
+      <c r="C210">
+        <v>0.66101938856078668</v>
+      </c>
+      <c r="D210">
+        <v>0.57859960608296301</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>0.6</v>
+      </c>
+      <c r="B211">
+        <v>0.2084773594790077</v>
+      </c>
+      <c r="C211">
+        <v>0.4998909342877047</v>
+      </c>
+      <c r="D211">
+        <v>0.50837435803713626</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>0.6</v>
+      </c>
+      <c r="B212">
+        <v>5.6904922978368857</v>
+      </c>
+      <c r="C212">
+        <v>0.49991840548823863</v>
+      </c>
+      <c r="D212">
+        <v>0.50005940508904101</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>0.6</v>
+      </c>
+      <c r="B213">
+        <v>5.062468598221292</v>
+      </c>
+      <c r="C213">
+        <v>0.15008114927284841</v>
+      </c>
+      <c r="D213">
+        <v>4.2049958455945724E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>0.6</v>
+      </c>
+      <c r="B214">
+        <v>5.6657083043603373</v>
+      </c>
+      <c r="C214">
+        <v>0.49990919050288884</v>
+      </c>
+      <c r="D214">
+        <v>0.56986477767718391</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>0.6</v>
+      </c>
+      <c r="B215">
+        <v>0.46900839317049686</v>
+      </c>
+      <c r="C215">
+        <v>0.24244906287136558</v>
+      </c>
+      <c r="D215">
+        <v>0.30196891139935955</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>0.6</v>
+      </c>
+      <c r="B216">
+        <v>4.633451305531584</v>
+      </c>
+      <c r="C216">
+        <v>0.50001262732678953</v>
+      </c>
+      <c r="D216">
+        <v>0.50009963952984893</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>0.6</v>
+      </c>
+      <c r="B217">
+        <v>0.62172487943495314</v>
+      </c>
+      <c r="C217">
+        <v>0.63378161738755034</v>
+      </c>
+      <c r="D217">
+        <v>0.93265155377735987</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>0.6</v>
+      </c>
+      <c r="B218">
+        <v>6.1587405853312376</v>
+      </c>
+      <c r="C218">
+        <v>0.71313696164823748</v>
+      </c>
+      <c r="D218">
+        <v>0.10930440398845342</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>0.6</v>
+      </c>
+      <c r="B219">
+        <v>4.2839925694787038</v>
+      </c>
+      <c r="C219">
+        <v>0.72192324539231834</v>
+      </c>
+      <c r="D219">
+        <v>0.20818598267819821</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>0.6</v>
+      </c>
+      <c r="B220">
+        <v>2.3989212461330438</v>
+      </c>
+      <c r="C220">
+        <v>0.90402037862717988</v>
+      </c>
+      <c r="D220">
+        <v>0.82550400194301443</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>0.6</v>
+      </c>
+      <c r="B221">
+        <v>5.200228482403789</v>
+      </c>
+      <c r="C221">
+        <v>0.12575777771026075</v>
+      </c>
+      <c r="D221">
+        <v>0.14480014701624455</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>0.6</v>
+      </c>
+      <c r="B222">
+        <v>1.2836876072131043</v>
+      </c>
+      <c r="C222">
+        <v>0.15929858669072883</v>
+      </c>
+      <c r="D222">
+        <v>0.84054828696596828</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>0.6</v>
+      </c>
+      <c r="B223">
+        <v>2.8092933436318339</v>
+      </c>
+      <c r="C223">
+        <v>0.48235368900802933</v>
+      </c>
+      <c r="D223">
+        <v>0.94250032583511945</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>0.6</v>
+      </c>
+      <c r="B224">
+        <v>4.7753729826249591</v>
+      </c>
+      <c r="C224">
+        <v>0.98201141010613913</v>
+      </c>
+      <c r="D224">
+        <v>0.81259580213191618</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>0.6</v>
+      </c>
+      <c r="B225">
+        <v>5.4159241433945224</v>
+      </c>
+      <c r="C225">
+        <v>0.88523129248718446</v>
+      </c>
+      <c r="D225">
+        <v>0.4241953775257814</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>0.6</v>
+      </c>
+      <c r="B226">
+        <v>4.5451147331483099</v>
+      </c>
+      <c r="C226">
+        <v>0.51153092082850737</v>
+      </c>
+      <c r="D226">
+        <v>0.5000881900797276</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>0.6</v>
+      </c>
+      <c r="B227">
+        <v>3.0874244150020029</v>
+      </c>
+      <c r="C227">
+        <v>0.43198956855757098</v>
+      </c>
+      <c r="D227">
+        <v>0.90839239166711694</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>0.6</v>
+      </c>
+      <c r="B228">
+        <v>5.4407313449270625</v>
+      </c>
+      <c r="C228">
+        <v>0.24992955929292426</v>
+      </c>
+      <c r="D228">
+        <v>0.8232549721467628</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>0.6</v>
+      </c>
+      <c r="B229">
+        <v>2.6949446568948621</v>
+      </c>
+      <c r="C229">
+        <v>0.76871612181000648</v>
+      </c>
+      <c r="D229">
+        <v>0.5733211271387848</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>0.6</v>
+      </c>
+      <c r="B230">
+        <v>5.8470788652279753</v>
+      </c>
+      <c r="C230">
+        <v>0.86285672847484296</v>
+      </c>
+      <c r="D230">
+        <v>0.85236680732820003</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>0.6</v>
+      </c>
+      <c r="B231">
+        <v>5.092729125068467</v>
+      </c>
+      <c r="C231">
+        <v>0.99089491662873241</v>
+      </c>
+      <c r="D231">
+        <v>0.42729723000171482</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>0.6</v>
+      </c>
+      <c r="B232">
+        <v>3.0335902749357366</v>
+      </c>
+      <c r="C232">
+        <v>0.90362910614535852</v>
+      </c>
+      <c r="D232">
+        <v>7.0245399814316656E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>0.6</v>
+      </c>
+      <c r="B233">
+        <v>1.1811014961971236</v>
+      </c>
+      <c r="C233">
+        <v>0.31764833694225514</v>
+      </c>
+      <c r="D233">
+        <v>0.49991927774013067</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>0.6</v>
+      </c>
+      <c r="B234">
+        <v>3.8058865169107321</v>
+      </c>
+      <c r="C234">
+        <v>0.45305488581191011</v>
+      </c>
+      <c r="D234">
+        <v>8.3868279698172676E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>0.6</v>
+      </c>
+      <c r="B235">
+        <v>4.2723494672695868</v>
+      </c>
+      <c r="C235">
+        <v>0.22454400934408991</v>
+      </c>
+      <c r="D235">
+        <v>0.70626921136750087</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>0.6</v>
+      </c>
+      <c r="B236">
+        <v>2.5539239228507515</v>
+      </c>
+      <c r="C236">
+        <v>0.76805885120031459</v>
+      </c>
+      <c r="D236">
+        <v>0.81218828972001011</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>0.6</v>
+      </c>
+      <c r="B237">
+        <v>2.2266053323278108</v>
+      </c>
+      <c r="C237">
+        <v>0.67522215655775297</v>
+      </c>
+      <c r="D237">
+        <v>0.32768211797205171</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>0.6</v>
+      </c>
+      <c r="B238">
+        <v>2.2471611155248286</v>
+      </c>
+      <c r="C238">
+        <v>0.14710718973067349</v>
+      </c>
+      <c r="D238">
+        <v>0.49992559195706532</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>0.6</v>
+      </c>
+      <c r="B239">
+        <v>6.0435266385015209</v>
+      </c>
+      <c r="C239">
+        <v>0.79437450345011484</v>
+      </c>
+      <c r="D239">
+        <v>0.85811119468271413</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>0.6</v>
+      </c>
+      <c r="B240">
+        <v>2.8703801711651407</v>
+      </c>
+      <c r="C240">
+        <v>2.9170090638436674E-2</v>
+      </c>
+      <c r="D240">
+        <v>0.13994800328974688</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>0.6</v>
+      </c>
+      <c r="B241">
+        <v>5.1114723504790875</v>
+      </c>
+      <c r="C241">
+        <v>0.88028691160794725</v>
+      </c>
+      <c r="D241">
+        <v>0.27697449122952589</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>0.6</v>
+      </c>
+      <c r="B242">
+        <v>5.4324512176796906</v>
+      </c>
+      <c r="C242">
+        <v>0.17590217752002002</v>
+      </c>
+      <c r="D242">
+        <v>0.86723276943306837</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>0.6</v>
+      </c>
+      <c r="B243">
+        <v>3.3457547040164095</v>
+      </c>
+      <c r="C243">
+        <v>0.50010878812630888</v>
+      </c>
+      <c r="D243">
+        <v>0.27449574338888416</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>0.6</v>
+      </c>
+      <c r="B244">
+        <v>5.6246635547647283</v>
+      </c>
+      <c r="C244">
+        <v>0.49990172526536725</v>
+      </c>
+      <c r="D244">
+        <v>0.66004143781718283</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>0.6</v>
+      </c>
+      <c r="B245">
+        <v>5.059867085680839</v>
+      </c>
+      <c r="C245">
+        <v>0.60722812809440596</v>
+      </c>
+      <c r="D245">
+        <v>0.50009681088555347</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>0.6</v>
+      </c>
+      <c r="B246">
+        <v>4.4857846710185658</v>
+      </c>
+      <c r="C246">
+        <v>0.61194845669856779</v>
+      </c>
+      <c r="D246">
+        <v>0.50010239194778272</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>0.6</v>
+      </c>
+      <c r="B247">
+        <v>6.2720170195624769</v>
+      </c>
+      <c r="C247">
+        <v>0.99934070387740137</v>
+      </c>
+      <c r="D247">
+        <v>0.9868520671414589</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>0.6</v>
+      </c>
+      <c r="B248">
+        <v>5.9258091214250319</v>
+      </c>
+      <c r="C248">
+        <v>0.49990594451800985</v>
+      </c>
+      <c r="D248">
+        <v>0.50002269071545058</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>0.6</v>
+      </c>
+      <c r="B249">
+        <v>1.7316337472483618</v>
+      </c>
+      <c r="C249">
+        <v>0.48806829789816675</v>
+      </c>
+      <c r="D249">
+        <v>0.49989664660258182</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>0.6</v>
+      </c>
+      <c r="B250">
+        <v>3.969026167657649</v>
+      </c>
+      <c r="C250">
+        <v>0.50005242401259098</v>
+      </c>
+      <c r="D250">
+        <v>0.50007317558696185</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1</v>
+      </c>
+      <c r="B251">
+        <v>1.1140674241495152</v>
+      </c>
+      <c r="C251">
+        <v>0.53516979284350163</v>
+      </c>
+      <c r="D251">
+        <v>0.94994667125027199</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="B252">
+        <v>0.69392007998359928</v>
+      </c>
+      <c r="C252">
+        <v>0.4999023893804439</v>
+      </c>
+      <c r="D252">
+        <v>0.75308929033085992</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1</v>
+      </c>
+      <c r="B253">
+        <v>4.1874747901360703</v>
+      </c>
+      <c r="C253">
+        <v>0.31758581083220605</v>
+      </c>
+      <c r="D253">
+        <v>0.89199623021380026</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="B254">
+        <v>4.3255362074825703</v>
+      </c>
+      <c r="C254">
+        <v>0.50003164278721712</v>
+      </c>
+      <c r="D254">
+        <v>0.5000849422247744</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="B255">
+        <v>4.8958071358545565</v>
+      </c>
+      <c r="C255">
+        <v>0.55040284196268541</v>
+      </c>
+      <c r="D255">
+        <v>0.50010742887970094</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256">
+        <v>1.9324350971399258</v>
+      </c>
+      <c r="C256">
+        <v>0.39962978023424389</v>
+      </c>
+      <c r="D256">
+        <v>0.49993308014438498</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="B257">
+        <v>4.1991000145578292</v>
+      </c>
+      <c r="C257">
+        <v>0.39219985410190911</v>
+      </c>
+      <c r="D257">
+        <v>0.94776123786439559</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="B258">
+        <v>0.85106552500013766</v>
+      </c>
+      <c r="C258">
+        <v>0.49992647925912542</v>
+      </c>
+      <c r="D258">
+        <v>0.49993785670474966</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>1</v>
+      </c>
+      <c r="B259">
+        <v>2.3966900099795718</v>
+      </c>
+      <c r="C259">
+        <v>0.93455866772631557</v>
+      </c>
+      <c r="D259">
+        <v>0.73563820639317767</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>1</v>
+      </c>
+      <c r="B260">
+        <v>5.4251095616185516</v>
+      </c>
+      <c r="C260">
+        <v>0.76799331648492442</v>
+      </c>
+      <c r="D260">
+        <v>0.50005849325361285</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="B261">
+        <v>1.9245307272726164</v>
+      </c>
+      <c r="C261">
+        <v>0.62605445387419523</v>
+      </c>
+      <c r="D261">
+        <v>0.49989404803027371</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1</v>
+      </c>
+      <c r="B262">
+        <v>4.0802472977728677</v>
+      </c>
+      <c r="C262">
+        <v>0.50004309705876804</v>
+      </c>
+      <c r="D262">
+        <v>0.50008577912283225</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="B263">
+        <v>3.906891355433852</v>
+      </c>
+      <c r="C263">
+        <v>0.50007088903582675</v>
+      </c>
+      <c r="D263">
+        <v>0.27867345830488344</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>1</v>
+      </c>
+      <c r="B264">
+        <v>0.62719169983908585</v>
+      </c>
+      <c r="C264">
+        <v>0.4999207024752943</v>
+      </c>
+      <c r="D264">
+        <v>0.49827658207006542</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="B265">
+        <v>3.9690023326424835</v>
+      </c>
+      <c r="C265">
+        <v>0.5000904668470405</v>
+      </c>
+      <c r="D265">
+        <v>0.50006273847915006</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>1</v>
+      </c>
+      <c r="B266">
+        <v>3.9085148631114555</v>
+      </c>
+      <c r="C266">
+        <v>0.50009428541511691</v>
+      </c>
+      <c r="D266">
+        <v>0.50001771336775025</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>1</v>
+      </c>
+      <c r="B267">
+        <v>2.5098757093275208</v>
+      </c>
+      <c r="C267">
+        <v>0.500071423250531</v>
+      </c>
+      <c r="D267">
+        <v>0.49993433135172616</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>1</v>
+      </c>
+      <c r="B268">
+        <v>5.4197057435235649</v>
+      </c>
+      <c r="C268">
+        <v>0.49999834460122261</v>
+      </c>
+      <c r="D268">
+        <v>0.50006115718863842</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>1</v>
+      </c>
+      <c r="B269">
+        <v>0.81589153449177276</v>
+      </c>
+      <c r="C269">
+        <v>0.49992938117948382</v>
+      </c>
+      <c r="D269">
+        <v>0.80128805336111641</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>1</v>
+      </c>
+      <c r="B270">
+        <v>2.7176700888980223</v>
+      </c>
+      <c r="C270">
+        <v>0.50012651608839942</v>
+      </c>
+      <c r="D270">
+        <v>0.49997464407042669</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>1</v>
+      </c>
+      <c r="B271">
+        <v>6.2128666406446893</v>
+      </c>
+      <c r="C271">
+        <v>0.30581005218829199</v>
+      </c>
+      <c r="D271">
+        <v>0.36570386229085727</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>1</v>
+      </c>
+      <c r="B272">
+        <v>4.4821463445826</v>
+      </c>
+      <c r="C272">
+        <v>0.25762113730452141</v>
+      </c>
+      <c r="D272">
+        <v>0.73506124393409067</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>1</v>
+      </c>
+      <c r="B273">
+        <v>0.13289330839408992</v>
+      </c>
+      <c r="C273">
+        <v>0.49989842767416492</v>
+      </c>
+      <c r="D273">
+        <v>0.53858847900124429</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>1</v>
+      </c>
+      <c r="B274">
+        <v>1.4477956492047845</v>
+      </c>
+      <c r="C274">
+        <v>0.90658109447859836</v>
+      </c>
+      <c r="D274">
+        <v>0.63513535804356258</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>1</v>
+      </c>
+      <c r="B275">
+        <v>4.4183972772004401</v>
+      </c>
+      <c r="C275">
+        <v>0.31018865054087086</v>
+      </c>
+      <c r="D275">
+        <v>0.65058132343076114</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>1</v>
+      </c>
+      <c r="B276">
+        <v>2.2059077628888408</v>
+      </c>
+      <c r="C276">
+        <v>0.1793681514461215</v>
+      </c>
+      <c r="D276">
+        <v>0.49991774771902797</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>1</v>
+      </c>
+      <c r="B277">
+        <v>3.0333096963896393</v>
+      </c>
+      <c r="C277">
+        <v>0.6730259974968571</v>
+      </c>
+      <c r="D277">
+        <v>0.79982321578188031</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>1</v>
+      </c>
+      <c r="B278">
+        <v>2.7880419119448021</v>
+      </c>
+      <c r="C278">
+        <v>0.79573087056614522</v>
+      </c>
+      <c r="D278">
+        <v>0.7383197874185603</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>1</v>
+      </c>
+      <c r="B279">
+        <v>5.6645221395058449</v>
+      </c>
+      <c r="C279">
+        <v>0.49988630621294061</v>
+      </c>
+      <c r="D279">
+        <v>0.50004709319340179</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>1</v>
+      </c>
+      <c r="B280">
+        <v>5.3757147488489396</v>
+      </c>
+      <c r="C280">
+        <v>0.73510355641251102</v>
+      </c>
+      <c r="D280">
+        <v>0.50007299888254597</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>1</v>
+      </c>
+      <c r="B281">
+        <v>3.5918249694359452</v>
+      </c>
+      <c r="C281">
+        <v>0.50008884133962095</v>
+      </c>
+      <c r="D281">
+        <v>0.58170519007300103</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>1</v>
+      </c>
+      <c r="B282">
+        <v>3.2831844683188174</v>
+      </c>
+      <c r="C282">
+        <v>0.5001151938687699</v>
+      </c>
+      <c r="D282">
+        <v>0.48364135564000765</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>1</v>
+      </c>
+      <c r="B283">
+        <v>2.0369798502825547</v>
+      </c>
+      <c r="C283">
+        <v>0.40109956339994074</v>
+      </c>
+      <c r="D283">
+        <v>0.49989042339596934</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>1</v>
+      </c>
+      <c r="B284">
+        <v>2.3799197175499729</v>
+      </c>
+      <c r="C284">
+        <v>0.24763086072703611</v>
+      </c>
+      <c r="D284">
+        <v>0.49993860157193631</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>1</v>
+      </c>
+      <c r="B285">
+        <v>3.9035363524682416</v>
+      </c>
+      <c r="C285">
+        <v>0.87390985184858749</v>
+      </c>
+      <c r="D285">
+        <v>0.4454058968344855</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>1</v>
+      </c>
+      <c r="B286">
+        <v>4.917551265983148</v>
+      </c>
+      <c r="C286">
+        <v>0.54003759478261237</v>
+      </c>
+      <c r="D286">
+        <v>0.50010087975319539</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>1</v>
+      </c>
+      <c r="B287">
+        <v>3.3779887662988903</v>
+      </c>
+      <c r="C287">
+        <v>0.50010866754643357</v>
+      </c>
+      <c r="D287">
+        <v>0.4766691220534558</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>1</v>
+      </c>
+      <c r="B288">
+        <v>2.2250168467040927</v>
+      </c>
+      <c r="C288">
+        <v>0.50003440112392905</v>
+      </c>
+      <c r="D288">
+        <v>0.4999299464671223</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>1</v>
+      </c>
+      <c r="B289">
+        <v>0.37443903814830842</v>
+      </c>
+      <c r="C289">
+        <v>2.5041579604237682E-2</v>
+      </c>
+      <c r="D289">
+        <v>0.20243578859806638</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>1</v>
+      </c>
+      <c r="B290">
+        <v>0.7642315092284746</v>
+      </c>
+      <c r="C290">
+        <v>0.49992315958581846</v>
+      </c>
+      <c r="D290">
+        <v>0.84494552349748941</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>1</v>
+      </c>
+      <c r="B291">
+        <v>2.820754275837118</v>
+      </c>
+      <c r="C291">
+        <v>0.50010601741712291</v>
+      </c>
+      <c r="D291">
+        <v>0.4999886921207124</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>1</v>
+      </c>
+      <c r="B292">
+        <v>5.0041545185663265</v>
+      </c>
+      <c r="C292">
+        <v>0.28284666847781464</v>
+      </c>
+      <c r="D292">
+        <v>0.50010279348469755</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>1</v>
+      </c>
+      <c r="B293">
+        <v>4.7634588918623963</v>
+      </c>
+      <c r="C293">
+        <v>0.50002148601977137</v>
+      </c>
+      <c r="D293">
+        <v>0.50009772767414673</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>1</v>
+      </c>
+      <c r="B294">
+        <v>2.8038942136868181</v>
+      </c>
+      <c r="C294">
+        <v>0.50009683032087127</v>
+      </c>
+      <c r="D294">
+        <v>0.49996314372520329</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>1</v>
+      </c>
+      <c r="B295">
+        <v>2.681122111385883</v>
+      </c>
+      <c r="C295">
+        <v>2.3878937196577077E-2</v>
+      </c>
+      <c r="D295">
+        <v>0.6449156687223927</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>1</v>
+      </c>
+      <c r="B296">
+        <v>6.070592992012827</v>
+      </c>
+      <c r="C296">
+        <v>0.41340699877898057</v>
+      </c>
+      <c r="D296">
+        <v>0.26519709725855378</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>1</v>
+      </c>
+      <c r="B297">
+        <v>2.8746360490855811</v>
+      </c>
+      <c r="C297">
+        <v>0.82668747697095535</v>
+      </c>
+      <c r="D297">
+        <v>0.72769959203813916</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>1</v>
+      </c>
+      <c r="B298">
+        <v>0.73298306548602332</v>
+      </c>
+      <c r="C298">
+        <v>0.49991635817792568</v>
+      </c>
+      <c r="D298">
+        <v>0.4999583477514003</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>1</v>
+      </c>
+      <c r="B299">
+        <v>5.3813787624722895</v>
+      </c>
+      <c r="C299">
+        <v>0.4575800481446104</v>
+      </c>
+      <c r="D299">
+        <v>0.50008212463320589</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>1</v>
+      </c>
+      <c r="B300">
+        <v>3.5980882414042887</v>
+      </c>
+      <c r="C300">
+        <v>0.5000954643493658</v>
+      </c>
+      <c r="D300">
+        <v>0.65188981240939414</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>1.8</v>
+      </c>
+      <c r="B301">
+        <v>1.777955348942639</v>
+      </c>
+      <c r="C301">
+        <v>0.4488080703768218</v>
+      </c>
+      <c r="D301">
+        <v>0.49988856119922476</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>1.8</v>
+      </c>
+      <c r="B302">
+        <v>4.4105093333152343</v>
+      </c>
+      <c r="C302">
+        <v>0.50001361822144419</v>
+      </c>
+      <c r="D302">
+        <v>0.50009197714848042</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>1.8</v>
+      </c>
+      <c r="B303">
+        <v>3.8133224703536746</v>
+      </c>
+      <c r="C303">
+        <v>0.50005891249606971</v>
+      </c>
+      <c r="D303">
+        <v>0.50005978437928578</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>1.8</v>
+      </c>
+      <c r="B304">
+        <v>8.1914396742600815E-2</v>
+      </c>
+      <c r="C304">
+        <v>5.7588099426995276E-2</v>
+      </c>
+      <c r="D304">
+        <v>0.5777091978228921</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>1.8</v>
+      </c>
+      <c r="B305">
+        <v>3.4343622345021023</v>
+      </c>
+      <c r="C305">
+        <v>0.52424136378417585</v>
+      </c>
+      <c r="D305">
+        <v>0.57059130113284096</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>1.8</v>
+      </c>
+      <c r="B306">
+        <v>5.1180600569341186</v>
+      </c>
+      <c r="C306">
+        <v>0.49999668470310477</v>
+      </c>
+      <c r="D306">
+        <v>0.55515809175565467</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>1.8</v>
+      </c>
+      <c r="B307">
+        <v>1.6107811530202234</v>
+      </c>
+      <c r="C307">
+        <v>0.62147555352768524</v>
+      </c>
+      <c r="D307">
+        <v>0.32732724384205625</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>1.8</v>
+      </c>
+      <c r="B308">
+        <v>4.5883807854249801</v>
+      </c>
+      <c r="C308">
+        <v>0.50003878193754847</v>
+      </c>
+      <c r="D308">
+        <v>0.50011644463190819</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>1.8</v>
+      </c>
+      <c r="B309">
+        <v>3.9769600634187059</v>
+      </c>
+      <c r="C309">
+        <v>0.50007633876054913</v>
+      </c>
+      <c r="D309">
+        <v>0.28370265146370094</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>1.8</v>
+      </c>
+      <c r="B310">
+        <v>6.2434052290949698</v>
+      </c>
+      <c r="C310">
+        <v>8.0292277762742614E-2</v>
+      </c>
+      <c r="D310">
+        <v>0.46054531148420486</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>1.8</v>
+      </c>
+      <c r="B311">
+        <v>5.7864675604509941</v>
+      </c>
+      <c r="C311">
+        <v>0.49991765677325861</v>
+      </c>
+      <c r="D311">
+        <v>0.50002914420248423</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>1.8</v>
+      </c>
+      <c r="B312">
+        <v>1.0730002964264291</v>
+      </c>
+      <c r="C312">
+        <v>0.49998155525667953</v>
+      </c>
+      <c r="D312">
+        <v>0.88397593301464727</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>1.8</v>
+      </c>
+      <c r="B313">
+        <v>5.2024126519842859</v>
+      </c>
+      <c r="C313">
+        <v>0.4992550050112432</v>
+      </c>
+      <c r="D313">
+        <v>0.66772700885167335</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>1.8</v>
+      </c>
+      <c r="B314">
+        <v>3.4970881952397379</v>
+      </c>
+      <c r="C314">
+        <v>0.77722952354520736</v>
+      </c>
+      <c r="D314">
+        <v>0.38533872863495078</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>1.8</v>
+      </c>
+      <c r="B315">
+        <v>2.3301382311598138</v>
+      </c>
+      <c r="C315">
+        <v>0.50006935375682104</v>
+      </c>
+      <c r="D315">
+        <v>0.46190822109016505</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>1.8</v>
+      </c>
+      <c r="B316">
+        <v>2.232690344453073</v>
+      </c>
+      <c r="C316">
+        <v>0.50000629915773542</v>
+      </c>
+      <c r="D316">
+        <v>0.47825361753670614</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>1.8</v>
+      </c>
+      <c r="B317">
+        <v>0.26047779700081308</v>
+      </c>
+      <c r="C317">
+        <v>0.2683380073497218</v>
+      </c>
+      <c r="D317">
+        <v>0.45280334977520953</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>1.8</v>
+      </c>
+      <c r="B318">
+        <v>3.8226677641990059</v>
+      </c>
+      <c r="C318">
+        <v>0.50008446017824326</v>
+      </c>
+      <c r="D318">
+        <v>0.35570583861761151</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>1.8</v>
+      </c>
+      <c r="B319">
+        <v>1.2990853116121239</v>
+      </c>
+      <c r="C319">
+        <v>0.42197314137135322</v>
+      </c>
+      <c r="D319">
+        <v>0.8904447327576468</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>1.8</v>
+      </c>
+      <c r="B320">
+        <v>0.38900341390400434</v>
+      </c>
+      <c r="C320">
+        <v>0.29414856587041649</v>
+      </c>
+      <c r="D320">
+        <v>0.47971745666384491</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>1.8</v>
+      </c>
+      <c r="B321">
+        <v>2.9729173864109608</v>
+      </c>
+      <c r="C321">
+        <v>0.89407109863685508</v>
+      </c>
+      <c r="D321">
+        <v>0.58136464146656497</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>1.8</v>
+      </c>
+      <c r="B322">
+        <v>2.7373448039357915</v>
+      </c>
+      <c r="C322">
+        <v>0.16629063286574841</v>
+      </c>
+      <c r="D322">
+        <v>0.49997999537445015</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>1.8</v>
+      </c>
+      <c r="B323">
+        <v>5.2346465960676314</v>
+      </c>
+      <c r="C323">
+        <v>0.4999653849804635</v>
+      </c>
+      <c r="D323">
+        <v>0.57991760971386452</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>1.8</v>
+      </c>
+      <c r="B324">
+        <v>1.0301852356544923</v>
+      </c>
+      <c r="C324">
+        <v>0.49994404474300569</v>
+      </c>
+      <c r="D324">
+        <v>0.81771473538826323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>1.8</v>
+      </c>
+      <c r="B325">
+        <v>2.1084578360926365E-2</v>
+      </c>
+      <c r="C325">
+        <v>6.6402652242269156E-2</v>
+      </c>
+      <c r="D325">
+        <v>0.47066941451369648</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>1.8</v>
+      </c>
+      <c r="B326">
+        <v>0.27722306171621386</v>
+      </c>
+      <c r="C326">
+        <v>0.30737097351907128</v>
+      </c>
+      <c r="D326">
+        <v>0.49998355378360904</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>1.8</v>
+      </c>
+      <c r="B327">
+        <v>1.216009869326856</v>
+      </c>
+      <c r="C327">
+        <v>0.54460833581809887</v>
+      </c>
+      <c r="D327">
+        <v>0.90711468645248272</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>1.8</v>
+      </c>
+      <c r="B328">
+        <v>2.787930382379527</v>
+      </c>
+      <c r="C328">
+        <v>2.1431910632308315E-2</v>
+      </c>
+      <c r="D328">
+        <v>0.50813233410667324</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>1.8</v>
+      </c>
+      <c r="B329">
+        <v>0.80277736865289784</v>
+      </c>
+      <c r="C329">
+        <v>0.48387221761950217</v>
+      </c>
+      <c r="D329">
+        <v>0.49989888328611021</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>1.8</v>
+      </c>
+      <c r="B330">
+        <v>0.27027415699495549</v>
+      </c>
+      <c r="C330">
+        <v>0.28812494405841771</v>
+      </c>
+      <c r="D330">
+        <v>0.43184732520561431</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>1.8</v>
+      </c>
+      <c r="B331">
+        <v>0.20180319218060488</v>
+      </c>
+      <c r="C331">
+        <v>0.23639944268967428</v>
+      </c>
+      <c r="D331">
+        <v>0.50013386956774863</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>1.8</v>
+      </c>
+      <c r="B332">
+        <v>1.2029618047827435</v>
+      </c>
+      <c r="C332">
+        <v>0.41232606184816234</v>
+      </c>
+      <c r="D332">
+        <v>0.9836094886690715</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>1.8</v>
+      </c>
+      <c r="B333">
+        <v>2.5504428195131132</v>
+      </c>
+      <c r="C333">
+        <v>0.19672847809053873</v>
+      </c>
+      <c r="D333">
+        <v>0.49994864951056783</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>1.8</v>
+      </c>
+      <c r="B334">
+        <v>1.3295261517527563</v>
+      </c>
+      <c r="C334">
+        <v>0.49997738464787272</v>
+      </c>
+      <c r="D334">
+        <v>0.49990102246701179</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>1.8</v>
+      </c>
+      <c r="B335">
+        <v>4.2916374281725753</v>
+      </c>
+      <c r="C335">
+        <v>0.50005805513283397</v>
+      </c>
+      <c r="D335">
+        <v>0.50009861534098032</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>1.8</v>
+      </c>
+      <c r="B336">
+        <v>4.4820438418889879</v>
+      </c>
+      <c r="C336">
+        <v>0.48526203843451476</v>
+      </c>
+      <c r="D336">
+        <v>0.10129170378368121</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>1.8</v>
+      </c>
+      <c r="B337">
+        <v>2.7334394621895268</v>
+      </c>
+      <c r="C337">
+        <v>0.50007876856316646</v>
+      </c>
+      <c r="D337">
+        <v>0.49997897666733992</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>1.8</v>
+      </c>
+      <c r="B338">
+        <v>3.8146456956269374</v>
+      </c>
+      <c r="C338">
+        <v>0.63281717445963137</v>
+      </c>
+      <c r="D338">
+        <v>0.35829177313661192</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>1.8</v>
+      </c>
+      <c r="B339">
+        <v>4.1546213223407218</v>
+      </c>
+      <c r="C339">
+        <v>0.50005673813211526</v>
+      </c>
+      <c r="D339">
+        <v>0.22189382360298815</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>1.8</v>
+      </c>
+      <c r="B340">
+        <v>0.3964199116616608</v>
+      </c>
+      <c r="C340">
+        <v>0.27007552035693383</v>
+      </c>
+      <c r="D340">
+        <v>0.60235202497292395</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>1.8</v>
+      </c>
+      <c r="B341">
+        <v>3.5576339998561699</v>
+      </c>
+      <c r="C341">
+        <v>0.64402708699073852</v>
+      </c>
+      <c r="D341">
+        <v>0.50458569385577734</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>1.8</v>
+      </c>
+      <c r="B342">
+        <v>4.5521943835428651</v>
+      </c>
+      <c r="C342">
+        <v>0.50001614686850315</v>
+      </c>
+      <c r="D342">
+        <v>0.50009104342049338</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>1.8</v>
+      </c>
+      <c r="B343">
+        <v>5.8598411006890423</v>
+      </c>
+      <c r="C343">
+        <v>0.82465558072445488</v>
+      </c>
+      <c r="D343">
+        <v>0.50820269735763191</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>1.8</v>
+      </c>
+      <c r="B344">
+        <v>6.141521029519363</v>
+      </c>
+      <c r="C344">
+        <v>3.0967999528531465E-2</v>
+      </c>
+      <c r="D344">
+        <v>0.45090139838668097</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>1.8</v>
+      </c>
+      <c r="B345">
+        <v>2.7467871200444685</v>
+      </c>
+      <c r="C345">
+        <v>0.11615341721920225</v>
+      </c>
+      <c r="D345">
+        <v>0.49996621543487985</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>1.8</v>
+      </c>
+      <c r="B346">
+        <v>5.1325900658416588</v>
+      </c>
+      <c r="C346">
+        <v>0.61159491160390389</v>
+      </c>
+      <c r="D346">
+        <v>0.50009286018679155</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>1.8</v>
+      </c>
+      <c r="B347">
+        <v>3.5240372232721797</v>
+      </c>
+      <c r="C347">
+        <v>0.50004662043439185</v>
+      </c>
+      <c r="D347">
+        <v>0.54289150864648494</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>1.8</v>
+      </c>
+      <c r="B348">
+        <v>5.1432987579009968</v>
+      </c>
+      <c r="C348">
+        <v>0.56491502900838941</v>
+      </c>
+      <c r="D348">
+        <v>0.74036082556341221</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>1.8</v>
+      </c>
+      <c r="B349">
+        <v>1.5039261110970166</v>
+      </c>
+      <c r="C349">
+        <v>0.60386117280150242</v>
+      </c>
+      <c r="D349">
+        <v>0.20796500072629001</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>1.8</v>
+      </c>
+      <c r="B350">
+        <v>2.3112091561178363</v>
+      </c>
+      <c r="C350">
+        <v>0.30776746673168942</v>
+      </c>
+      <c r="D350">
+        <v>0.46167531634731596</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>3</v>
+      </c>
+      <c r="B351">
+        <v>2.1576662712129409</v>
+      </c>
+      <c r="C351">
+        <v>0.16361061492134055</v>
+      </c>
+      <c r="D351">
+        <v>0.17330296781207219</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>3</v>
+      </c>
+      <c r="B352">
+        <v>5.7191878195840795</v>
+      </c>
+      <c r="C352">
+        <v>0.71179287788386336</v>
+      </c>
+      <c r="D352">
+        <v>0.62098363329322837</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>3</v>
+      </c>
+      <c r="B353">
+        <v>2.1045876791996534</v>
+      </c>
+      <c r="C353">
+        <v>0.37439668067109011</v>
+      </c>
+      <c r="D353">
+        <v>0.36262883517218281</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>3</v>
+      </c>
+      <c r="B354">
+        <v>3.2078229614868317</v>
+      </c>
+      <c r="C354">
+        <v>0.87937574369559335</v>
+      </c>
+      <c r="D354">
+        <v>0.27252341535752556</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>3</v>
+      </c>
+      <c r="B355">
+        <v>0.53750756665674448</v>
+      </c>
+      <c r="C355">
+        <v>0.47252772962516421</v>
+      </c>
+      <c r="D355">
+        <v>0.88806001306388493</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>3</v>
+      </c>
+      <c r="B356">
+        <v>1.153158140685193</v>
+      </c>
+      <c r="C356">
+        <v>0.29378937320557075</v>
+      </c>
+      <c r="D356">
+        <v>0.16133685594948788</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>3</v>
+      </c>
+      <c r="B357">
+        <v>1.0478953790283174</v>
+      </c>
+      <c r="C357">
+        <v>0.43375407596242876</v>
+      </c>
+      <c r="D357">
+        <v>2.4804601041845675E-3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>3</v>
+      </c>
+      <c r="B358">
+        <v>2.0597195982365979</v>
+      </c>
+      <c r="C358">
+        <v>0.16936523799218256</v>
+      </c>
+      <c r="D358">
+        <v>0.21480598286932839</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>3</v>
+      </c>
+      <c r="B359">
+        <v>1.2095389267559953</v>
+      </c>
+      <c r="C359">
+        <v>0.24612642180003108</v>
+      </c>
+      <c r="D359">
+        <v>4.360501119738551E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>3</v>
+      </c>
+      <c r="B360">
+        <v>0.5121686358624199</v>
+      </c>
+      <c r="C360">
+        <v>2.2343772705738618E-2</v>
+      </c>
+      <c r="D360">
+        <v>0.63814209841958047</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>3</v>
+      </c>
+      <c r="B361">
+        <v>0.71853632423492875</v>
+      </c>
+      <c r="C361">
+        <v>0.13980798077609768</v>
+      </c>
+      <c r="D361">
+        <v>0.81834660283559335</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>3</v>
+      </c>
+      <c r="B362">
+        <v>3.3725171721827434</v>
+      </c>
+      <c r="C362">
+        <v>0.87731047274469143</v>
+      </c>
+      <c r="D362">
+        <v>0.30785651826644167</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>3</v>
+      </c>
+      <c r="B363">
+        <v>3.2952981268723116</v>
+      </c>
+      <c r="C363">
+        <v>0.82756044399487183</v>
+      </c>
+      <c r="D363">
+        <v>0.29934573351939614</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>3</v>
+      </c>
+      <c r="B364">
+        <v>0.89906180624395982</v>
+      </c>
+      <c r="C364">
+        <v>0.29428172228518884</v>
+      </c>
+      <c r="D364">
+        <v>0.67199607791856675</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>3</v>
+      </c>
+      <c r="B365">
+        <v>0.75610960309823572</v>
+      </c>
+      <c r="C365">
+        <v>3.6586238251815423E-2</v>
+      </c>
+      <c r="D365">
+        <v>0.61757918094105402</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>3</v>
+      </c>
+      <c r="B366">
+        <v>1.3351237413788006</v>
+      </c>
+      <c r="C366">
+        <v>0.50007669895427398</v>
+      </c>
+      <c r="D366">
+        <v>0.10035024215031441</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>3</v>
+      </c>
+      <c r="B367">
+        <v>0.79364106458374573</v>
+      </c>
+      <c r="C367">
+        <v>0.44364246761602011</v>
+      </c>
+      <c r="D367">
+        <v>0.95202666138956826</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>3</v>
+      </c>
+      <c r="B368">
+        <v>5.5431639943580588</v>
+      </c>
+      <c r="C368">
+        <v>0.82094422242270571</v>
+      </c>
+      <c r="D368">
+        <v>0.78932238031712476</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>3</v>
+      </c>
+      <c r="B369">
+        <v>0.81833827106110146</v>
+      </c>
+      <c r="C369">
+        <v>0.48412307053344383</v>
+      </c>
+      <c r="D369">
+        <v>0.87593326561715146</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>3</v>
+      </c>
+      <c r="B370">
+        <v>5.9047678434982354</v>
+      </c>
+      <c r="C370">
+        <v>0.81812323770711948</v>
+      </c>
+      <c r="D370">
+        <v>0.52097533681072727</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>3</v>
+      </c>
+      <c r="B371">
+        <v>6.0042665411211775</v>
+      </c>
+      <c r="C371">
+        <v>0.82023263310143157</v>
+      </c>
+      <c r="D371">
+        <v>0.5000296742037279</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>3</v>
+      </c>
+      <c r="B372">
+        <v>4.3902252728529927</v>
+      </c>
+      <c r="C372">
+        <v>0.69086690911160897</v>
+      </c>
+      <c r="D372">
+        <v>0.20210366531279611</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>3</v>
+      </c>
+      <c r="B373">
+        <v>2.8826811049798771</v>
+      </c>
+      <c r="C373">
+        <v>9.0967415974247512E-2</v>
+      </c>
+      <c r="D373">
+        <v>0.44648320557870602</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>3</v>
+      </c>
+      <c r="B374">
+        <v>1.9191597042345927</v>
+      </c>
+      <c r="C374">
+        <v>0.38014448529333567</v>
+      </c>
+      <c r="D374">
+        <v>9.5963231688233772E-2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>3</v>
+      </c>
+      <c r="B375">
+        <v>1.6247580448285877</v>
+      </c>
+      <c r="C375">
+        <v>0.47235036783867357</v>
+      </c>
+      <c r="D375">
+        <v>0.19060913955461412</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>3</v>
+      </c>
+      <c r="B376">
+        <v>3.9546927741950069</v>
+      </c>
+      <c r="C376">
+        <v>0.89895345879343891</v>
+      </c>
+      <c r="D376">
+        <v>5.7567246204154029E-2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>3</v>
+      </c>
+      <c r="B377">
+        <v>5.4435991385439477</v>
+      </c>
+      <c r="C377">
+        <v>0.75632126520740595</v>
+      </c>
+      <c r="D377">
+        <v>0.663357203476303</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>3</v>
+      </c>
+      <c r="B378">
+        <v>0.37029473538491248</v>
+      </c>
+      <c r="C378">
+        <v>0.99516533045016364</v>
+      </c>
+      <c r="D378">
+        <v>0.54916151355346887</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>3</v>
+      </c>
+      <c r="B379">
+        <v>0.61820958390771064</v>
+      </c>
+      <c r="C379">
+        <v>0.15153290723861831</v>
+      </c>
+      <c r="D379">
+        <v>0.68620180619924065</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>3</v>
+      </c>
+      <c r="B380">
+        <v>4.0645360989437966</v>
+      </c>
+      <c r="C380">
+        <v>0.55255182887821963</v>
+      </c>
+      <c r="D380">
+        <v>0.32512856662305517</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>3</v>
+      </c>
+      <c r="B381">
+        <v>4.879368749434426</v>
+      </c>
+      <c r="C381">
+        <v>0.454170127380503</v>
+      </c>
+      <c r="D381">
+        <v>0.69734446384751703</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>3</v>
+      </c>
+      <c r="B382">
+        <v>4.8348405084714878</v>
+      </c>
+      <c r="C382">
+        <v>0.77945972376906791</v>
+      </c>
+      <c r="D382">
+        <v>0.98521479632330022</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>3</v>
+      </c>
+      <c r="B383">
+        <v>2.1257316988488237</v>
+      </c>
+      <c r="C383">
+        <v>0.50001705985529088</v>
+      </c>
+      <c r="D383">
+        <v>0.32161504870029461</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>3</v>
+      </c>
+      <c r="B384">
+        <v>2.0623527711104512</v>
+      </c>
+      <c r="C384">
+        <v>0.20788911721810258</v>
+      </c>
+      <c r="D384">
+        <v>0.15470398999921864</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>3</v>
+      </c>
+      <c r="B385">
+        <v>0.50428567748500874</v>
+      </c>
+      <c r="C385">
+        <v>0.11032750753966702</v>
+      </c>
+      <c r="D385">
+        <v>0.76633749759314984</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>3</v>
+      </c>
+      <c r="B386">
+        <v>1.9993586343695189</v>
+      </c>
+      <c r="C386">
+        <v>0.18334658012550964</v>
+      </c>
+      <c r="D386">
+        <v>0.23818836139614874</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>3</v>
+      </c>
+      <c r="B387">
+        <v>6.0918684157211391</v>
+      </c>
+      <c r="C387">
+        <v>0.23439527962213969</v>
+      </c>
+      <c r="D387">
+        <v>0.61831591161920696</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>3</v>
+      </c>
+      <c r="B388">
+        <v>8.8872403492815444E-2</v>
+      </c>
+      <c r="C388">
+        <v>6.2125106732067489E-2</v>
+      </c>
+      <c r="D388">
+        <v>0.86662616376236867</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>3</v>
+      </c>
+      <c r="B389">
+        <v>5.4908035268300885</v>
+      </c>
+      <c r="C389">
+        <v>0.80821797192629363</v>
+      </c>
+      <c r="D389">
+        <v>0.93294806874135028</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>3</v>
+      </c>
+      <c r="B390">
+        <v>0.96119781841715735</v>
+      </c>
+      <c r="C390">
+        <v>0.43318259990325814</v>
+      </c>
+      <c r="D390">
+        <v>0.93695283324564071</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>3</v>
+      </c>
+      <c r="B391">
+        <v>0.32800632336532409</v>
+      </c>
+      <c r="C391">
+        <v>0.35371970538933306</v>
+      </c>
+      <c r="D391">
+        <v>0.66155551388249578</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>3</v>
+      </c>
+      <c r="B392">
+        <v>5.0192457901469316</v>
+      </c>
+      <c r="C392">
+        <v>0.67103192486047225</v>
+      </c>
+      <c r="D392">
+        <v>0.70569205219228004</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>3</v>
+      </c>
+      <c r="B393">
+        <v>0.44676532445645989</v>
+      </c>
+      <c r="C393">
+        <v>0.21772071683280253</v>
+      </c>
+      <c r="D393">
+        <v>0.98993410091646017</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>3</v>
+      </c>
+      <c r="B394">
+        <v>1.1972177498534313</v>
+      </c>
+      <c r="C394">
+        <v>0.20229610244459062</v>
+      </c>
+      <c r="D394">
+        <v>0.97729280356977288</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>3</v>
+      </c>
+      <c r="B395">
+        <v>1.6201389629601675</v>
+      </c>
+      <c r="C395">
+        <v>0.42709441148547755</v>
+      </c>
+      <c r="D395">
+        <v>0.23968562707508234</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>3</v>
+      </c>
+      <c r="B396">
+        <v>4.5613095964087904</v>
+      </c>
+      <c r="C396">
+        <v>0.69475986476035323</v>
+      </c>
+      <c r="D396">
+        <v>5.641550533951023E-2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>3</v>
+      </c>
+      <c r="B397">
+        <v>6.0072155983898554</v>
+      </c>
+      <c r="C397">
+        <v>0.94574062149044291</v>
+      </c>
+      <c r="D397">
+        <v>0.73851922361461897</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>3</v>
+      </c>
+      <c r="B398">
+        <v>4.895999117294366</v>
+      </c>
+      <c r="C398">
+        <v>0.54956525135794809</v>
+      </c>
+      <c r="D398">
+        <v>0.78254179915266853</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>3</v>
+      </c>
+      <c r="B399">
+        <v>5.2725953471890747</v>
+      </c>
+      <c r="C399">
+        <v>0.90659635882994882</v>
+      </c>
+      <c r="D399">
+        <v>0.85718132068738151</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>3</v>
+      </c>
+      <c r="B400">
+        <v>0.90593160173187448</v>
+      </c>
+      <c r="C400">
+        <v>0.24596132450499819</v>
+      </c>
+      <c r="D400">
+        <v>0.6516269836650963</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401">
         <v>10</v>
       </c>
-      <c r="B140">
-        <v>0.66388933995523836</v>
-      </c>
-      <c r="C140">
-        <v>0.76109099852201556</v>
-      </c>
-      <c r="D140">
-        <v>0.96299823908698656</v>
+      <c r="B401">
+        <v>1.5197544911614349</v>
+      </c>
+      <c r="C401">
+        <v>0.49999829566865195</v>
+      </c>
+      <c r="D401">
+        <v>0.81029496156599279</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>10</v>
+      </c>
+      <c r="B402">
+        <v>2.1997539395206753</v>
+      </c>
+      <c r="C402">
+        <v>0.18281690290577474</v>
+      </c>
+      <c r="D402">
+        <v>0.75209309675566272</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>10</v>
+      </c>
+      <c r="B403">
+        <v>4.108946475797592</v>
+      </c>
+      <c r="C403">
+        <v>0.98682535091740242</v>
+      </c>
+      <c r="D403">
+        <v>0.23562823135897726</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>10</v>
+      </c>
+      <c r="B404">
+        <v>1.5209801123564746</v>
+      </c>
+      <c r="C404">
+        <v>0.43757669093976875</v>
+      </c>
+      <c r="D404">
+        <v>0.11698717348569278</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>10</v>
+      </c>
+      <c r="B405">
+        <v>0.88159699306465367</v>
+      </c>
+      <c r="C405">
+        <v>0.47499617925568005</v>
+      </c>
+      <c r="D405">
+        <v>0.15132265389620456</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>10</v>
+      </c>
+      <c r="B406">
+        <v>3.0823975891774418</v>
+      </c>
+      <c r="C406">
+        <v>0.59612177267816269</v>
+      </c>
+      <c r="D406">
+        <v>0.42658550846439752</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>10</v>
+      </c>
+      <c r="B407">
+        <v>5.691680279135606</v>
+      </c>
+      <c r="C407">
+        <v>0.49995846367329233</v>
+      </c>
+      <c r="D407">
+        <v>0.73914698017515601</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>10</v>
+      </c>
+      <c r="B408">
+        <v>4.6703343332880145</v>
+      </c>
+      <c r="C408">
+        <v>0.24422464161788804</v>
+      </c>
+      <c r="D408">
+        <v>0.6859334767443227</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>10</v>
+      </c>
+      <c r="B409">
+        <v>1.5597679601091663</v>
+      </c>
+      <c r="C409">
+        <v>0.72894315005024812</v>
+      </c>
+      <c r="D409">
+        <v>0.31724943788271492</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>10</v>
+      </c>
+      <c r="B410">
+        <v>3.3538097047974396</v>
+      </c>
+      <c r="C410">
+        <v>0.75758108936854329</v>
+      </c>
+      <c r="D410">
+        <v>8.9570904591218026E-2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>10</v>
+      </c>
+      <c r="B411">
+        <v>1.2561122685592454</v>
+      </c>
+      <c r="C411">
+        <v>0.31986814414922793</v>
+      </c>
+      <c r="D411">
+        <v>0.70083983546149931</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>10</v>
+      </c>
+      <c r="B412">
+        <v>4.1496893591857225</v>
+      </c>
+      <c r="C412">
+        <v>0.69611442476349383</v>
+      </c>
+      <c r="D412">
+        <v>0.65896915954963375</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>10</v>
+      </c>
+      <c r="B413">
+        <v>2.4712384420691587</v>
+      </c>
+      <c r="C413">
+        <v>0.95547139403075965</v>
+      </c>
+      <c r="D413">
+        <v>0.67413063248657212</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>10</v>
+      </c>
+      <c r="B414">
+        <v>4.2016545720625498</v>
+      </c>
+      <c r="C414">
+        <v>0.11581989112712941</v>
+      </c>
+      <c r="D414">
+        <v>3.1986681492902916E-2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>10</v>
+      </c>
+      <c r="B415">
+        <v>0.88191744338944655</v>
+      </c>
+      <c r="C415">
+        <v>0.31286094676864484</v>
+      </c>
+      <c r="D415">
+        <v>0.37334097826692175</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>10</v>
+      </c>
+      <c r="B416">
+        <v>5.2297892880093126</v>
+      </c>
+      <c r="C416">
+        <v>0.20793904407565197</v>
+      </c>
+      <c r="D416">
+        <v>0.20677897398402711</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>10</v>
+      </c>
+      <c r="B417">
+        <v>1.3521679989636228</v>
+      </c>
+      <c r="C417">
+        <v>0.16472291509214684</v>
+      </c>
+      <c r="D417">
+        <v>0.91799494838571605</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>10</v>
+      </c>
+      <c r="B418">
+        <v>1.1884201367151581</v>
+      </c>
+      <c r="C418">
+        <v>0.70912195515643694</v>
+      </c>
+      <c r="D418">
+        <v>0.35604787330404453</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>10</v>
+      </c>
+      <c r="B419">
+        <v>5.2322712524766164</v>
+      </c>
+      <c r="C419">
+        <v>0.30695975183947755</v>
+      </c>
+      <c r="D419">
+        <v>0.5987394072434391</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>10</v>
+      </c>
+      <c r="B420">
+        <v>2.6166693180492651</v>
+      </c>
+      <c r="C420">
+        <v>0.68391262478461368</v>
+      </c>
+      <c r="D420">
+        <v>0.10928553242304845</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>10</v>
+      </c>
+      <c r="B421">
+        <v>2.4130108510504784</v>
+      </c>
+      <c r="C421">
+        <v>0.75814812548531285</v>
+      </c>
+      <c r="D421">
+        <v>0.19517617862110881</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>10</v>
+      </c>
+      <c r="B422">
+        <v>4.5393692459467614</v>
+      </c>
+      <c r="C422">
+        <v>0.74634034617790079</v>
+      </c>
+      <c r="D422">
+        <v>0.58179573877874602</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>10</v>
+      </c>
+      <c r="B423">
+        <v>2.1557266646230855</v>
+      </c>
+      <c r="C423">
+        <v>0.13571251480753732</v>
+      </c>
+      <c r="D423">
+        <v>0.17326722270145203</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>10</v>
+      </c>
+      <c r="B424">
+        <v>1.6275873604816073</v>
+      </c>
+      <c r="C424">
+        <v>0.80648165286731022</v>
+      </c>
+      <c r="D424">
+        <v>0.78563434107982377</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>10</v>
+      </c>
+      <c r="B425">
+        <v>5.3399102083065495</v>
+      </c>
+      <c r="C425">
+        <v>0.84809376630392541</v>
+      </c>
+      <c r="D425">
+        <v>7.9624707395091088E-2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>10</v>
+      </c>
+      <c r="B426">
+        <v>4.8603621804639232</v>
+      </c>
+      <c r="C426">
+        <v>0.57588571729440952</v>
+      </c>
+      <c r="D426">
+        <v>0.66185810687927238</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>10</v>
+      </c>
+      <c r="B427">
+        <v>2.7972237597505547</v>
+      </c>
+      <c r="C427">
+        <v>0.57700533906290463</v>
+      </c>
+      <c r="D427">
+        <v>0.30903645692970161</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>10</v>
+      </c>
+      <c r="B428">
+        <v>4.0412751938627816</v>
+      </c>
+      <c r="C428">
+        <v>0.74369498248136301</v>
+      </c>
+      <c r="D428">
+        <v>0.65394787073624805</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>10</v>
+      </c>
+      <c r="B429">
+        <v>1.1966100381473788</v>
+      </c>
+      <c r="C429">
+        <v>2.4661612437588833E-2</v>
+      </c>
+      <c r="D429">
+        <v>0.6448044226229902</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>10</v>
+      </c>
+      <c r="B430">
+        <v>5.8437554699032042</v>
+      </c>
+      <c r="C430">
+        <v>0.29161292620277929</v>
+      </c>
+      <c r="D430">
+        <v>0.87657371897840863</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>10</v>
+      </c>
+      <c r="B431">
+        <v>0.95467228143897565</v>
+      </c>
+      <c r="C431">
+        <v>4.1730754470717869E-2</v>
+      </c>
+      <c r="D431">
+        <v>0.53386828591533608</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>10</v>
+      </c>
+      <c r="B432">
+        <v>3.2313458774508002</v>
+      </c>
+      <c r="C432">
+        <v>0.75747249112521087</v>
+      </c>
+      <c r="D432">
+        <v>0.21877156668032199</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>10</v>
+      </c>
+      <c r="B433">
+        <v>2.2887637350982173</v>
+      </c>
+      <c r="C433">
+        <v>0.55222400649591608</v>
+      </c>
+      <c r="D433">
+        <v>0.11517191525208907</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>10</v>
+      </c>
+      <c r="B434">
+        <v>1.7625960097905931</v>
+      </c>
+      <c r="C434">
+        <v>0.5328656258109179</v>
+      </c>
+      <c r="D434">
+        <v>4.6795027022857372E-2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>10</v>
+      </c>
+      <c r="B435">
+        <v>4.0629724231674365</v>
+      </c>
+      <c r="C435">
+        <v>0.88036398595724763</v>
+      </c>
+      <c r="D435">
+        <v>0.98981885588038665</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>10</v>
+      </c>
+      <c r="B436">
+        <v>1.8550412339579812</v>
+      </c>
+      <c r="C436">
+        <v>0.68177974408945607</v>
+      </c>
+      <c r="D436">
+        <v>0.10278578653774077</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>10</v>
+      </c>
+      <c r="B437">
+        <v>0.28559226019760953</v>
+      </c>
+      <c r="C437">
+        <v>0.347003903720145</v>
+      </c>
+      <c r="D437">
+        <v>0.67485227948395266</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>10</v>
+      </c>
+      <c r="B438">
+        <v>5.9886895610062414</v>
+      </c>
+      <c r="C438">
+        <v>0.55622520674153775</v>
+      </c>
+      <c r="D438">
+        <v>0.8062443667776803</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>10</v>
+      </c>
+      <c r="B439">
+        <v>3.4186823070845049</v>
+      </c>
+      <c r="C439">
+        <v>5.7906796906876695E-2</v>
+      </c>
+      <c r="D439">
+        <v>0.43332670279620583</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>10</v>
+      </c>
+      <c r="B440">
+        <v>3.9898721719005028</v>
+      </c>
+      <c r="C440">
+        <v>0.54243970800713914</v>
+      </c>
+      <c r="D440">
+        <v>0.76276392013755889</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>10</v>
+      </c>
+      <c r="B441">
+        <v>1.7689057566835238</v>
+      </c>
+      <c r="C441">
+        <v>0.38171913340121122</v>
+      </c>
+      <c r="D441">
+        <v>0.18734457620743611</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>10</v>
+      </c>
+      <c r="B442">
+        <v>5.8069919992022454</v>
+      </c>
+      <c r="C442">
+        <v>0.70757663025495998</v>
+      </c>
+      <c r="D442">
+        <v>5.550170817273032E-2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>10</v>
+      </c>
+      <c r="B443">
+        <v>5.1301821555099556</v>
+      </c>
+      <c r="C443">
+        <v>0.32664974635058652</v>
+      </c>
+      <c r="D443">
+        <v>0.82004279257419477</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>10</v>
+      </c>
+      <c r="B444">
+        <v>6.0790952366288433</v>
+      </c>
+      <c r="C444">
+        <v>0.94984267748923334</v>
+      </c>
+      <c r="D444">
+        <v>0.2918137211512225</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>10</v>
+      </c>
+      <c r="B445">
+        <v>5.4048701165894242</v>
+      </c>
+      <c r="C445">
+        <v>0.98749785615496688</v>
+      </c>
+      <c r="D445">
+        <v>0.73500163179201938</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>10</v>
+      </c>
+      <c r="B446">
+        <v>2.9152496524530305</v>
+      </c>
+      <c r="C446">
+        <v>0.77698572363135143</v>
+      </c>
+      <c r="D446">
+        <v>4.2506370526119691E-2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>10</v>
+      </c>
+      <c r="B447">
+        <v>3.7840280467671552</v>
+      </c>
+      <c r="C447">
+        <v>0.76084667611670187</v>
+      </c>
+      <c r="D447">
+        <v>0.66235700290765909</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>10</v>
+      </c>
+      <c r="B448">
+        <v>5.2477726713559241</v>
+      </c>
+      <c r="C448">
+        <v>9.4021919676694474E-2</v>
+      </c>
+      <c r="D448">
+        <v>0.66685232630137481</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>10</v>
+      </c>
+      <c r="B449">
+        <v>5.9148174654019279</v>
+      </c>
+      <c r="C449">
+        <v>9.515778961179773E-2</v>
+      </c>
+      <c r="D449">
+        <v>0.53182331427824869</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>10</v>
+      </c>
+      <c r="B450">
+        <v>4.2508379868940462</v>
+      </c>
+      <c r="C450">
+        <v>0.28688024513719501</v>
+      </c>
+      <c r="D450">
+        <v>0.73558028284731203</v>
       </c>
     </row>
   </sheetData>
